--- a/Upbit초장기투자 분석.xlsx
+++ b/Upbit초장기투자 분석.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lab506\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lab506\Desktop\Researchers\조시훈\Upbit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76D50560-3E50-4537-B900-44A296E5C53D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C5F5B0A-A83C-45BD-9509-72A1AA127B59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{F933CAAD-9770-4C3D-86F2-F773986BF6F0}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="959" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="963" uniqueCount="246">
   <si>
     <t>코인코드</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -768,15 +768,31 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>왜 차이가 나지…?</t>
+    <t>매수총합</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>0원인 것들이 14개</t>
+    <t>보유총합(현재가기준)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>이게 왜 차이나는거지</t>
+    <t>보유총합(매도가기준)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>손익금(매도가기준)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>손익금(현재가기준)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>총손익(현재가)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>총손익(매도가)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -784,10 +800,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="2">
     <numFmt numFmtId="176" formatCode="#,##0.00_ \K\R\W"/>
-    <numFmt numFmtId="177" formatCode="#,##0.00_ "/>
-    <numFmt numFmtId="180" formatCode="#,##0.0000_ &quot;개&quot;"/>
+    <numFmt numFmtId="177" formatCode="#,##0.0000_ &quot;개&quot;"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -823,7 +838,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -978,13 +993,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1045,10 +1073,10 @@
     <xf numFmtId="176" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
@@ -1069,14 +1097,89 @@
     <xf numFmtId="176" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="8">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -6874,10 +6977,12 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60EE3787-4240-4CA9-A457-7A1306D3950C}">
-  <dimension ref="A1:M120"/>
+  <dimension ref="A1:N116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B91" workbookViewId="0">
-      <selection activeCell="E107" sqref="E107"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="L110" sqref="L110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6888,12 +6993,13 @@
     <col min="4" max="5" width="20.5" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20.5" style="9" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15" style="9" customWidth="1"/>
-    <col min="8" max="9" width="14.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.25" style="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="21.875" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.875" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.25" style="4" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="18.25" style="4" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9" style="4"/>
+    <col min="15" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="7" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -6915,25 +7021,25 @@
       <c r="F1" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="17" t="s">
         <v>231</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="17" t="s">
+        <v>237</v>
+      </c>
+      <c r="J1" s="17" t="s">
+        <v>235</v>
+      </c>
+      <c r="K1" s="17" t="s">
         <v>232</v>
       </c>
-      <c r="J1" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="17" t="s">
         <v>238</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="17" t="s">
         <v>236</v>
       </c>
     </row>
@@ -6956,32 +7062,32 @@
       <c r="F2" s="13">
         <v>100000</v>
       </c>
-      <c r="G2" s="20">
+      <c r="G2" s="32">
         <f>IFERROR(F2 / D2,0)</f>
         <v>20.986358866736619</v>
       </c>
-      <c r="H2" s="23">
+      <c r="H2" s="34">
         <f>IFERROR((C2 - D2) / D2, 0)</f>
         <v>-0.3777544596012592</v>
       </c>
-      <c r="I2" s="22">
+      <c r="I2" s="18">
+        <f>G2 * C2</f>
+        <v>62224.554039874078</v>
+      </c>
+      <c r="J2" s="35">
+        <f>IF(G2 = 0, 0, I2 - F2)</f>
+        <v>-37775.445960125922</v>
+      </c>
+      <c r="K2" s="34">
         <f>IFERROR((E2 - D2) / D2, 0)</f>
         <v>2.2035676810073453E-2</v>
       </c>
-      <c r="J2" s="13">
-        <f>G2 * C2</f>
-        <v>62224.554039874078</v>
-      </c>
-      <c r="K2" s="14">
+      <c r="L2" s="18">
         <f>G2 * E2</f>
         <v>102203.56768100733</v>
       </c>
-      <c r="L2" s="26">
-        <f>IF(G2 = 0, 0, J2 - F2)</f>
-        <v>-37775.445960125922</v>
-      </c>
-      <c r="M2" s="27">
-        <f>IF(G2 = 0, 0, K2 - F2)</f>
+      <c r="M2" s="35">
+        <f>IF(G2 = 0, 0, L2 - F2)</f>
         <v>2203.5676810073346</v>
       </c>
     </row>
@@ -7004,32 +7110,32 @@
       <c r="F3" s="13">
         <v>100000</v>
       </c>
-      <c r="G3" s="20">
+      <c r="G3" s="32">
         <f>IFERROR(F3 / D3,0)</f>
         <v>16.366612111292962</v>
       </c>
-      <c r="H3" s="23">
+      <c r="H3" s="34">
         <f t="shared" ref="H3:H66" si="0">IFERROR((C3 - D3) / D3, 0)</f>
         <v>-7.6104746317512281E-2</v>
       </c>
-      <c r="I3" s="22">
-        <f t="shared" ref="I3:I66" si="1">IFERROR((E3 - D3) / D3, 0)</f>
+      <c r="I3" s="18">
+        <f>G3 * C3</f>
+        <v>92389.525368248767</v>
+      </c>
+      <c r="J3" s="18">
+        <f>IF(G3 = 0, 0, I3 - F3)</f>
+        <v>-7610.4746317512327</v>
+      </c>
+      <c r="K3" s="34">
+        <f>IFERROR((E3 - D3) / D3, 0)</f>
         <v>-4.7463175122749592E-2</v>
       </c>
-      <c r="J3" s="13">
-        <f t="shared" ref="J3:J66" si="2">G3 * C3</f>
-        <v>92389.525368248767</v>
-      </c>
-      <c r="K3" s="14">
-        <f t="shared" ref="K3:K66" si="3">G3 * E3</f>
+      <c r="L3" s="18">
+        <f t="shared" ref="L3:L66" si="1">G3 * E3</f>
         <v>95253.682487725047</v>
       </c>
-      <c r="L3" s="13">
-        <f t="shared" ref="L3:L66" si="4">IF(G3 = 0, 0, J3 - F3)</f>
-        <v>-7610.4746317512327</v>
-      </c>
-      <c r="M3" s="14">
-        <f t="shared" ref="M3:M66" si="5">IF(G3 = 0, 0, K3 - F3)</f>
+      <c r="M3" s="18">
+        <f>IF(G3 = 0, 0, L3 - F3)</f>
         <v>-4746.3175122749526</v>
       </c>
     </row>
@@ -7052,32 +7158,32 @@
       <c r="F4" s="13">
         <v>100000</v>
       </c>
-      <c r="G4" s="20">
-        <f t="shared" ref="G4:G67" si="6">IFERROR(F4 / D4,0)</f>
+      <c r="G4" s="32">
+        <f t="shared" ref="G4:G67" si="2">IFERROR(F4 / D4,0)</f>
         <v>1.4656309541257511</v>
       </c>
-      <c r="H4" s="23">
+      <c r="H4" s="34">
         <f t="shared" si="0"/>
         <v>-0.46944159460647811</v>
       </c>
-      <c r="I4" s="22">
-        <f t="shared" si="1"/>
+      <c r="I4" s="18">
+        <f>G4 * C4</f>
+        <v>53055.84053935219</v>
+      </c>
+      <c r="J4" s="18">
+        <f>IF(G4 = 0, 0, I4 - F4)</f>
+        <v>-46944.15946064781</v>
+      </c>
+      <c r="K4" s="34">
+        <f>IFERROR((E4 - D4) / D4, 0)</f>
         <v>2.2717279788949142E-2</v>
       </c>
-      <c r="J4" s="13">
-        <f t="shared" si="2"/>
-        <v>53055.84053935219</v>
-      </c>
-      <c r="K4" s="14">
-        <f t="shared" si="3"/>
+      <c r="L4" s="18">
+        <f t="shared" si="1"/>
         <v>102271.72797889491</v>
       </c>
-      <c r="L4" s="13">
-        <f t="shared" si="4"/>
-        <v>-46944.15946064781</v>
-      </c>
-      <c r="M4" s="14">
-        <f t="shared" si="5"/>
+      <c r="M4" s="18">
+        <f>IF(G4 = 0, 0, L4 - F4)</f>
         <v>2271.727978894909</v>
       </c>
     </row>
@@ -7096,32 +7202,32 @@
       <c r="F5" s="13">
         <v>100000</v>
       </c>
-      <c r="G5" s="20">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="H5" s="23">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I5" s="22">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J5" s="13">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K5" s="14">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L5" s="13">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="M5" s="14">
-        <f t="shared" si="5"/>
+      <c r="G5" s="32">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H5" s="34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I5" s="18">
+        <f>G5 * C5</f>
+        <v>0</v>
+      </c>
+      <c r="J5" s="18">
+        <f>IF(G5 = 0, 0, I5 - F5)</f>
+        <v>0</v>
+      </c>
+      <c r="K5" s="34">
+        <f>IFERROR((E5 - D5) / D5, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="L5" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M5" s="18">
+        <f>IF(G5 = 0, 0, L5 - F5)</f>
         <v>0</v>
       </c>
     </row>
@@ -7144,32 +7250,32 @@
       <c r="F6" s="13">
         <v>100000</v>
       </c>
-      <c r="G6" s="20">
-        <f t="shared" si="6"/>
+      <c r="G6" s="32">
+        <f t="shared" si="2"/>
         <v>4.5682960255824581</v>
       </c>
-      <c r="H6" s="23">
+      <c r="H6" s="34">
         <f t="shared" si="0"/>
         <v>0.89447236180904521</v>
       </c>
-      <c r="I6" s="22">
-        <f t="shared" si="1"/>
+      <c r="I6" s="18">
+        <f>G6 * C6</f>
+        <v>189447.23618090453</v>
+      </c>
+      <c r="J6" s="18">
+        <f>IF(G6 = 0, 0, I6 - F6)</f>
+        <v>89447.236180904525</v>
+      </c>
+      <c r="K6" s="34">
+        <f>IFERROR((E6 - D6) / D6, 0)</f>
         <v>-8.6340794883508445E-2</v>
       </c>
-      <c r="J6" s="13">
-        <f t="shared" si="2"/>
-        <v>189447.23618090453</v>
-      </c>
-      <c r="K6" s="14">
-        <f t="shared" si="3"/>
+      <c r="L6" s="18">
+        <f t="shared" si="1"/>
         <v>91365.920511649165</v>
       </c>
-      <c r="L6" s="13">
-        <f t="shared" si="4"/>
-        <v>89447.236180904525</v>
-      </c>
-      <c r="M6" s="14">
-        <f t="shared" si="5"/>
+      <c r="M6" s="18">
+        <f>IF(G6 = 0, 0, L6 - F6)</f>
         <v>-8634.0794883508352</v>
       </c>
     </row>
@@ -7192,32 +7298,32 @@
       <c r="F7" s="13">
         <v>100000</v>
       </c>
-      <c r="G7" s="20">
-        <f t="shared" si="6"/>
+      <c r="G7" s="32">
+        <f t="shared" si="2"/>
         <v>42.735042735042732</v>
       </c>
-      <c r="H7" s="23">
+      <c r="H7" s="34">
         <f t="shared" si="0"/>
         <v>-0.21153846153846154</v>
       </c>
-      <c r="I7" s="22">
-        <f t="shared" si="1"/>
+      <c r="I7" s="18">
+        <f>G7 * C7</f>
+        <v>78846.153846153844</v>
+      </c>
+      <c r="J7" s="18">
+        <f>IF(G7 = 0, 0, I7 - F7)</f>
+        <v>-21153.846153846156</v>
+      </c>
+      <c r="K7" s="34">
+        <f>IFERROR((E7 - D7) / D7, 0)</f>
         <v>3.8461538461538464E-2</v>
       </c>
-      <c r="J7" s="13">
-        <f t="shared" si="2"/>
-        <v>78846.153846153844</v>
-      </c>
-      <c r="K7" s="14">
-        <f t="shared" si="3"/>
+      <c r="L7" s="18">
+        <f t="shared" si="1"/>
         <v>103846.15384615384</v>
       </c>
-      <c r="L7" s="13">
-        <f t="shared" si="4"/>
-        <v>-21153.846153846156</v>
-      </c>
-      <c r="M7" s="14">
-        <f t="shared" si="5"/>
+      <c r="M7" s="18">
+        <f>IF(G7 = 0, 0, L7 - F7)</f>
         <v>3846.1538461538439</v>
       </c>
     </row>
@@ -7236,32 +7342,32 @@
       <c r="F8" s="13">
         <v>100000</v>
       </c>
-      <c r="G8" s="20">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="H8" s="23">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I8" s="22">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J8" s="13">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K8" s="14">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L8" s="13">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="M8" s="14">
-        <f t="shared" si="5"/>
+      <c r="G8" s="32">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H8" s="34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I8" s="18">
+        <f>G8 * C8</f>
+        <v>0</v>
+      </c>
+      <c r="J8" s="18">
+        <f>IF(G8 = 0, 0, I8 - F8)</f>
+        <v>0</v>
+      </c>
+      <c r="K8" s="34">
+        <f>IFERROR((E8 - D8) / D8, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="L8" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M8" s="18">
+        <f>IF(G8 = 0, 0, L8 - F8)</f>
         <v>0</v>
       </c>
     </row>
@@ -7284,32 +7390,32 @@
       <c r="F9" s="13">
         <v>100000</v>
       </c>
-      <c r="G9" s="20">
-        <f t="shared" si="6"/>
+      <c r="G9" s="32">
+        <f t="shared" si="2"/>
         <v>6.0277275467148881</v>
       </c>
-      <c r="H9" s="23">
+      <c r="H9" s="34">
         <f t="shared" si="0"/>
         <v>1.1621458710066306</v>
       </c>
-      <c r="I9" s="22">
-        <f t="shared" si="1"/>
+      <c r="I9" s="18">
+        <f>G9 * C9</f>
+        <v>216214.58710066305</v>
+      </c>
+      <c r="J9" s="18">
+        <f>IF(G9 = 0, 0, I9 - F9)</f>
+        <v>116214.58710066305</v>
+      </c>
+      <c r="K9" s="34">
+        <f>IFERROR((E9 - D9) / D9, 0)</f>
         <v>-8.7402049427365888E-2</v>
       </c>
-      <c r="J9" s="13">
-        <f t="shared" si="2"/>
-        <v>216214.58710066305</v>
-      </c>
-      <c r="K9" s="14">
-        <f t="shared" si="3"/>
+      <c r="L9" s="18">
+        <f t="shared" si="1"/>
         <v>91259.7950572634</v>
       </c>
-      <c r="L9" s="13">
-        <f t="shared" si="4"/>
-        <v>116214.58710066305</v>
-      </c>
-      <c r="M9" s="14">
-        <f t="shared" si="5"/>
+      <c r="M9" s="18">
+        <f>IF(G9 = 0, 0, L9 - F9)</f>
         <v>-8740.2049427366001</v>
       </c>
     </row>
@@ -7328,32 +7434,32 @@
       <c r="F10" s="13">
         <v>100000</v>
       </c>
-      <c r="G10" s="20">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="H10" s="23">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I10" s="22">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J10" s="13">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K10" s="14">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L10" s="13">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="M10" s="14">
-        <f t="shared" si="5"/>
+      <c r="G10" s="32">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H10" s="34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I10" s="18">
+        <f>G10 * C10</f>
+        <v>0</v>
+      </c>
+      <c r="J10" s="18">
+        <f>IF(G10 = 0, 0, I10 - F10)</f>
+        <v>0</v>
+      </c>
+      <c r="K10" s="34">
+        <f>IFERROR((E10 - D10) / D10, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="L10" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M10" s="18">
+        <f>IF(G10 = 0, 0, L10 - F10)</f>
         <v>0</v>
       </c>
     </row>
@@ -7376,32 +7482,32 @@
       <c r="F11" s="13">
         <v>100000</v>
       </c>
-      <c r="G11" s="20">
-        <f t="shared" si="6"/>
+      <c r="G11" s="32">
+        <f t="shared" si="2"/>
         <v>0.13991884706870014</v>
       </c>
-      <c r="H11" s="23">
+      <c r="H11" s="34">
         <f t="shared" si="0"/>
         <v>-0.46809850286833637</v>
       </c>
-      <c r="I11" s="22">
-        <f t="shared" si="1"/>
+      <c r="I11" s="18">
+        <f>G11 * C11</f>
+        <v>53190.149713166356</v>
+      </c>
+      <c r="J11" s="18">
+        <f>IF(G11 = 0, 0, I11 - F11)</f>
+        <v>-46809.850286833644</v>
+      </c>
+      <c r="K11" s="34">
+        <f>IFERROR((E11 - D11) / D11, 0)</f>
         <v>-3.4420036378900239E-2</v>
       </c>
-      <c r="J11" s="13">
-        <f t="shared" si="2"/>
-        <v>53190.149713166356</v>
-      </c>
-      <c r="K11" s="14">
-        <f t="shared" si="3"/>
+      <c r="L11" s="18">
+        <f t="shared" si="1"/>
         <v>96557.996362109974</v>
       </c>
-      <c r="L11" s="13">
-        <f t="shared" si="4"/>
-        <v>-46809.850286833644</v>
-      </c>
-      <c r="M11" s="14">
-        <f t="shared" si="5"/>
+      <c r="M11" s="18">
+        <f>IF(G11 = 0, 0, L11 - F11)</f>
         <v>-3442.0036378900259</v>
       </c>
     </row>
@@ -7424,32 +7530,32 @@
       <c r="F12" s="13">
         <v>100000</v>
       </c>
-      <c r="G12" s="20">
-        <f t="shared" si="6"/>
+      <c r="G12" s="32">
+        <f t="shared" si="2"/>
         <v>106.04453870625663</v>
       </c>
-      <c r="H12" s="23">
+      <c r="H12" s="34">
         <f t="shared" si="0"/>
         <v>0.10286320254506894</v>
       </c>
-      <c r="I12" s="22">
-        <f t="shared" si="1"/>
+      <c r="I12" s="18">
+        <f>G12 * C12</f>
+        <v>110286.32025450689</v>
+      </c>
+      <c r="J12" s="18">
+        <f>IF(G12 = 0, 0, I12 - F12)</f>
+        <v>10286.320254506893</v>
+      </c>
+      <c r="K12" s="34">
+        <f>IFERROR((E12 - D12) / D12, 0)</f>
         <v>3.2873806998939555E-2</v>
       </c>
-      <c r="J12" s="13">
-        <f t="shared" si="2"/>
-        <v>110286.32025450689</v>
-      </c>
-      <c r="K12" s="14">
-        <f t="shared" si="3"/>
+      <c r="L12" s="18">
+        <f t="shared" si="1"/>
         <v>103287.38069989395</v>
       </c>
-      <c r="L12" s="13">
-        <f t="shared" si="4"/>
-        <v>10286.320254506893</v>
-      </c>
-      <c r="M12" s="14">
-        <f t="shared" si="5"/>
+      <c r="M12" s="18">
+        <f>IF(G12 = 0, 0, L12 - F12)</f>
         <v>3287.3806998939544</v>
       </c>
     </row>
@@ -7472,32 +7578,32 @@
       <c r="F13" s="13">
         <v>100000</v>
       </c>
-      <c r="G13" s="20">
-        <f t="shared" si="6"/>
+      <c r="G13" s="32">
+        <f t="shared" si="2"/>
         <v>25.031289111389235</v>
       </c>
-      <c r="H13" s="23">
+      <c r="H13" s="34">
         <f t="shared" si="0"/>
         <v>-2.1276595744680851E-2</v>
       </c>
-      <c r="I13" s="22">
-        <f t="shared" si="1"/>
+      <c r="I13" s="18">
+        <f>G13 * C13</f>
+        <v>97872.340425531904</v>
+      </c>
+      <c r="J13" s="18">
+        <f>IF(G13 = 0, 0, I13 - F13)</f>
+        <v>-2127.6595744680963</v>
+      </c>
+      <c r="K13" s="34">
+        <f>IFERROR((E13 - D13) / D13, 0)</f>
         <v>-5.6320400500625784E-2</v>
       </c>
-      <c r="J13" s="13">
-        <f t="shared" si="2"/>
-        <v>97872.340425531904</v>
-      </c>
-      <c r="K13" s="14">
-        <f t="shared" si="3"/>
+      <c r="L13" s="18">
+        <f t="shared" si="1"/>
         <v>94367.959949937416</v>
       </c>
-      <c r="L13" s="13">
-        <f t="shared" si="4"/>
-        <v>-2127.6595744680963</v>
-      </c>
-      <c r="M13" s="14">
-        <f t="shared" si="5"/>
+      <c r="M13" s="18">
+        <f>IF(G13 = 0, 0, L13 - F13)</f>
         <v>-5632.0400500625838</v>
       </c>
     </row>
@@ -7520,32 +7626,32 @@
       <c r="F14" s="13">
         <v>100000</v>
       </c>
-      <c r="G14" s="20">
-        <f t="shared" si="6"/>
+      <c r="G14" s="32">
+        <f t="shared" si="2"/>
         <v>50.632911392405063</v>
       </c>
-      <c r="H14" s="23">
+      <c r="H14" s="34">
         <f t="shared" si="0"/>
         <v>-0.46582278481012657</v>
       </c>
-      <c r="I14" s="22">
-        <f t="shared" si="1"/>
+      <c r="I14" s="18">
+        <f>G14 * C14</f>
+        <v>53417.721518987339</v>
+      </c>
+      <c r="J14" s="18">
+        <f>IF(G14 = 0, 0, I14 - F14)</f>
+        <v>-46582.278481012661</v>
+      </c>
+      <c r="K14" s="34">
+        <f>IFERROR((E14 - D14) / D14, 0)</f>
         <v>2.7848101265822784E-2</v>
       </c>
-      <c r="J14" s="13">
-        <f t="shared" si="2"/>
-        <v>53417.721518987339</v>
-      </c>
-      <c r="K14" s="14">
-        <f t="shared" si="3"/>
+      <c r="L14" s="18">
+        <f t="shared" si="1"/>
         <v>102784.81012658228</v>
       </c>
-      <c r="L14" s="13">
-        <f t="shared" si="4"/>
-        <v>-46582.278481012661</v>
-      </c>
-      <c r="M14" s="14">
-        <f t="shared" si="5"/>
+      <c r="M14" s="18">
+        <f>IF(G14 = 0, 0, L14 - F14)</f>
         <v>2784.810126582277</v>
       </c>
     </row>
@@ -7568,32 +7674,32 @@
       <c r="F15" s="13">
         <v>100000</v>
       </c>
-      <c r="G15" s="20">
-        <f t="shared" si="6"/>
+      <c r="G15" s="32">
+        <f t="shared" si="2"/>
         <v>1.4641288433382138</v>
       </c>
-      <c r="H15" s="23">
+      <c r="H15" s="34">
         <f t="shared" si="0"/>
         <v>-0.45256222547584185</v>
       </c>
-      <c r="I15" s="22">
-        <f t="shared" si="1"/>
+      <c r="I15" s="18">
+        <f>G15 * C15</f>
+        <v>54743.777452415816</v>
+      </c>
+      <c r="J15" s="18">
+        <f>IF(G15 = 0, 0, I15 - F15)</f>
+        <v>-45256.222547584184</v>
+      </c>
+      <c r="K15" s="34">
+        <f>IFERROR((E15 - D15) / D15, 0)</f>
         <v>-5.197657393850659E-2</v>
       </c>
-      <c r="J15" s="13">
-        <f t="shared" si="2"/>
-        <v>54743.777452415816</v>
-      </c>
-      <c r="K15" s="14">
-        <f t="shared" si="3"/>
+      <c r="L15" s="18">
+        <f t="shared" si="1"/>
         <v>94802.342606149337</v>
       </c>
-      <c r="L15" s="13">
-        <f t="shared" si="4"/>
-        <v>-45256.222547584184</v>
-      </c>
-      <c r="M15" s="14">
-        <f t="shared" si="5"/>
+      <c r="M15" s="18">
+        <f>IF(G15 = 0, 0, L15 - F15)</f>
         <v>-5197.6573938506626</v>
       </c>
     </row>
@@ -7612,32 +7718,32 @@
       <c r="F16" s="13">
         <v>100000</v>
       </c>
-      <c r="G16" s="20">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="H16" s="23">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I16" s="22">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J16" s="13">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K16" s="14">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L16" s="13">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="M16" s="14">
-        <f t="shared" si="5"/>
+      <c r="G16" s="32">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H16" s="34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I16" s="18">
+        <f>G16 * C16</f>
+        <v>0</v>
+      </c>
+      <c r="J16" s="18">
+        <f>IF(G16 = 0, 0, I16 - F16)</f>
+        <v>0</v>
+      </c>
+      <c r="K16" s="34">
+        <f>IFERROR((E16 - D16) / D16, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="L16" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M16" s="18">
+        <f>IF(G16 = 0, 0, L16 - F16)</f>
         <v>0</v>
       </c>
     </row>
@@ -7660,32 +7766,32 @@
       <c r="F17" s="13">
         <v>100000</v>
       </c>
-      <c r="G17" s="20">
-        <f t="shared" si="6"/>
+      <c r="G17" s="32">
+        <f t="shared" si="2"/>
         <v>8403.3613445378141</v>
       </c>
-      <c r="H17" s="23">
+      <c r="H17" s="34">
         <f t="shared" si="0"/>
         <v>0.16806722689075629</v>
       </c>
-      <c r="I17" s="22">
-        <f t="shared" si="1"/>
+      <c r="I17" s="18">
+        <f>G17 * C17</f>
+        <v>116806.72268907561</v>
+      </c>
+      <c r="J17" s="18">
+        <f>IF(G17 = 0, 0, I17 - F17)</f>
+        <v>16806.722689075614</v>
+      </c>
+      <c r="K17" s="34">
+        <f>IFERROR((E17 - D17) / D17, 0)</f>
         <v>5.8823529411764643E-2</v>
       </c>
-      <c r="J17" s="13">
-        <f t="shared" si="2"/>
-        <v>116806.72268907561</v>
-      </c>
-      <c r="K17" s="14">
-        <f t="shared" si="3"/>
+      <c r="L17" s="18">
+        <f t="shared" si="1"/>
         <v>105882.35294117646</v>
       </c>
-      <c r="L17" s="13">
-        <f t="shared" si="4"/>
-        <v>16806.722689075614</v>
-      </c>
-      <c r="M17" s="14">
-        <f t="shared" si="5"/>
+      <c r="M17" s="18">
+        <f>IF(G17 = 0, 0, L17 - F17)</f>
         <v>5882.3529411764612</v>
       </c>
     </row>
@@ -7708,32 +7814,32 @@
       <c r="F18" s="13">
         <v>100000</v>
       </c>
-      <c r="G18" s="20">
-        <f t="shared" si="6"/>
+      <c r="G18" s="32">
+        <f t="shared" si="2"/>
         <v>0.20820320632937747</v>
       </c>
-      <c r="H18" s="23">
+      <c r="H18" s="34">
         <f t="shared" si="0"/>
         <v>-0.7941703102227774</v>
       </c>
-      <c r="I18" s="22">
-        <f t="shared" si="1"/>
+      <c r="I18" s="18">
+        <f>G18 * C18</f>
+        <v>20582.968977722256</v>
+      </c>
+      <c r="J18" s="18">
+        <f>IF(G18 = 0, 0, I18 - F18)</f>
+        <v>-79417.031022277748</v>
+      </c>
+      <c r="K18" s="34">
+        <f>IFERROR((E18 - D18) / D18, 0)</f>
         <v>5.4549240058296901E-2</v>
       </c>
-      <c r="J18" s="13">
-        <f t="shared" si="2"/>
-        <v>20582.968977722256</v>
-      </c>
-      <c r="K18" s="14">
-        <f t="shared" si="3"/>
+      <c r="L18" s="18">
+        <f t="shared" si="1"/>
         <v>105454.92400582969</v>
       </c>
-      <c r="L18" s="13">
-        <f t="shared" si="4"/>
-        <v>-79417.031022277748</v>
-      </c>
-      <c r="M18" s="14">
-        <f t="shared" si="5"/>
+      <c r="M18" s="18">
+        <f>IF(G18 = 0, 0, L18 - F18)</f>
         <v>5454.9240058296855</v>
       </c>
     </row>
@@ -7756,32 +7862,32 @@
       <c r="F19" s="13">
         <v>100000</v>
       </c>
-      <c r="G19" s="20">
-        <f t="shared" si="6"/>
+      <c r="G19" s="32">
+        <f t="shared" si="2"/>
         <v>3.0404378230465188</v>
       </c>
-      <c r="H19" s="23">
+      <c r="H19" s="34">
         <f t="shared" si="0"/>
         <v>-0.77105503192459712</v>
       </c>
-      <c r="I19" s="22">
-        <f t="shared" si="1"/>
+      <c r="I19" s="18">
+        <f>G19 * C19</f>
+        <v>22894.496807540287</v>
+      </c>
+      <c r="J19" s="18">
+        <f>IF(G19 = 0, 0, I19 - F19)</f>
+        <v>-77105.503192459713</v>
+      </c>
+      <c r="K19" s="34">
+        <f>IFERROR((E19 - D19) / D19, 0)</f>
         <v>3.6485253876558225E-3</v>
       </c>
-      <c r="J19" s="13">
-        <f t="shared" si="2"/>
-        <v>22894.496807540287</v>
-      </c>
-      <c r="K19" s="14">
-        <f t="shared" si="3"/>
+      <c r="L19" s="18">
+        <f t="shared" si="1"/>
         <v>100364.85253876558</v>
       </c>
-      <c r="L19" s="13">
-        <f t="shared" si="4"/>
-        <v>-77105.503192459713</v>
-      </c>
-      <c r="M19" s="14">
-        <f t="shared" si="5"/>
+      <c r="M19" s="18">
+        <f>IF(G19 = 0, 0, L19 - F19)</f>
         <v>364.85253876558272</v>
       </c>
     </row>
@@ -7804,32 +7910,32 @@
       <c r="F20" s="13">
         <v>100000</v>
       </c>
-      <c r="G20" s="20">
-        <f t="shared" si="6"/>
+      <c r="G20" s="32">
+        <f t="shared" si="2"/>
         <v>11.494252873563218</v>
       </c>
-      <c r="H20" s="23">
+      <c r="H20" s="34">
         <f t="shared" si="0"/>
         <v>-0.47816091954022988</v>
       </c>
-      <c r="I20" s="22">
-        <f t="shared" si="1"/>
+      <c r="I20" s="18">
+        <f>G20 * C20</f>
+        <v>52183.908045977005</v>
+      </c>
+      <c r="J20" s="18">
+        <f>IF(G20 = 0, 0, I20 - F20)</f>
+        <v>-47816.091954022995</v>
+      </c>
+      <c r="K20" s="34">
+        <f>IFERROR((E20 - D20) / D20, 0)</f>
         <v>0.16091954022988506</v>
       </c>
-      <c r="J20" s="13">
-        <f t="shared" si="2"/>
-        <v>52183.908045977005</v>
-      </c>
-      <c r="K20" s="14">
-        <f t="shared" si="3"/>
+      <c r="L20" s="18">
+        <f t="shared" si="1"/>
         <v>116091.9540229885</v>
       </c>
-      <c r="L20" s="13">
-        <f t="shared" si="4"/>
-        <v>-47816.091954022995</v>
-      </c>
-      <c r="M20" s="14">
-        <f t="shared" si="5"/>
+      <c r="M20" s="18">
+        <f>IF(G20 = 0, 0, L20 - F20)</f>
         <v>16091.954022988502</v>
       </c>
     </row>
@@ -7852,32 +7958,32 @@
       <c r="F21" s="13">
         <v>100000</v>
       </c>
-      <c r="G21" s="20">
-        <f t="shared" si="6"/>
+      <c r="G21" s="32">
+        <f t="shared" si="2"/>
         <v>12.539184952978056</v>
       </c>
-      <c r="H21" s="23">
+      <c r="H21" s="34">
         <f t="shared" si="0"/>
         <v>-0.47523510971786836</v>
       </c>
-      <c r="I21" s="22">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J21" s="13">
-        <f t="shared" si="2"/>
+      <c r="I21" s="18">
+        <f>G21 * C21</f>
         <v>52476.489028213167</v>
       </c>
-      <c r="K21" s="14">
-        <f t="shared" si="3"/>
-        <v>100000</v>
-      </c>
-      <c r="L21" s="13">
-        <f t="shared" si="4"/>
+      <c r="J21" s="18">
+        <f>IF(G21 = 0, 0, I21 - F21)</f>
         <v>-47523.510971786833</v>
       </c>
-      <c r="M21" s="14">
-        <f t="shared" si="5"/>
+      <c r="K21" s="34">
+        <f>IFERROR((E21 - D21) / D21, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="L21" s="18">
+        <f t="shared" si="1"/>
+        <v>100000</v>
+      </c>
+      <c r="M21" s="18">
+        <f>IF(G21 = 0, 0, L21 - F21)</f>
         <v>0</v>
       </c>
     </row>
@@ -7900,32 +8006,32 @@
       <c r="F22" s="13">
         <v>100000</v>
       </c>
-      <c r="G22" s="20">
-        <f t="shared" si="6"/>
+      <c r="G22" s="32">
+        <f t="shared" si="2"/>
         <v>840.33613445378148</v>
       </c>
-      <c r="H22" s="23">
+      <c r="H22" s="34">
         <f t="shared" si="0"/>
         <v>-0.48739495798319327</v>
       </c>
-      <c r="I22" s="22">
-        <f t="shared" si="1"/>
+      <c r="I22" s="18">
+        <f>G22 * C22</f>
+        <v>51260.504201680669</v>
+      </c>
+      <c r="J22" s="18">
+        <f>IF(G22 = 0, 0, I22 - F22)</f>
+        <v>-48739.495798319331</v>
+      </c>
+      <c r="K22" s="34">
+        <f>IFERROR((E22 - D22) / D22, 0)</f>
         <v>-0.84873949579831931</v>
       </c>
-      <c r="J22" s="13">
-        <f t="shared" si="2"/>
-        <v>51260.504201680669</v>
-      </c>
-      <c r="K22" s="14">
-        <f t="shared" si="3"/>
+      <c r="L22" s="18">
+        <f t="shared" si="1"/>
         <v>15126.050420168067</v>
       </c>
-      <c r="L22" s="13">
-        <f t="shared" si="4"/>
-        <v>-48739.495798319331</v>
-      </c>
-      <c r="M22" s="14">
-        <f t="shared" si="5"/>
+      <c r="M22" s="18">
+        <f>IF(G22 = 0, 0, L22 - F22)</f>
         <v>-84873.94957983194</v>
       </c>
     </row>
@@ -7948,32 +8054,32 @@
       <c r="F23" s="13">
         <v>100000</v>
       </c>
-      <c r="G23" s="20">
-        <f t="shared" si="6"/>
+      <c r="G23" s="32">
+        <f t="shared" si="2"/>
         <v>7042.2535211267605</v>
       </c>
-      <c r="H23" s="23">
+      <c r="H23" s="34">
         <f t="shared" si="0"/>
         <v>-0.29577464788732388</v>
       </c>
-      <c r="I23" s="22">
-        <f t="shared" si="1"/>
+      <c r="I23" s="18">
+        <f>G23 * C23</f>
+        <v>70422.535211267605</v>
+      </c>
+      <c r="J23" s="18">
+        <f>IF(G23 = 0, 0, I23 - F23)</f>
+        <v>-29577.464788732395</v>
+      </c>
+      <c r="K23" s="34">
+        <f>IFERROR((E23 - D23) / D23, 0)</f>
         <v>7.0422535211268613E-3</v>
       </c>
-      <c r="J23" s="13">
-        <f t="shared" si="2"/>
-        <v>70422.535211267605</v>
-      </c>
-      <c r="K23" s="14">
-        <f t="shared" si="3"/>
+      <c r="L23" s="18">
+        <f t="shared" si="1"/>
         <v>100704.22535211268</v>
       </c>
-      <c r="L23" s="13">
-        <f t="shared" si="4"/>
-        <v>-29577.464788732395</v>
-      </c>
-      <c r="M23" s="14">
-        <f t="shared" si="5"/>
+      <c r="M23" s="18">
+        <f>IF(G23 = 0, 0, L23 - F23)</f>
         <v>704.22535211268405</v>
       </c>
     </row>
@@ -7996,32 +8102,32 @@
       <c r="F24" s="13">
         <v>100000</v>
       </c>
-      <c r="G24" s="20">
-        <f t="shared" si="6"/>
+      <c r="G24" s="32">
+        <f t="shared" si="2"/>
         <v>1.168633867009466</v>
       </c>
-      <c r="H24" s="23">
+      <c r="H24" s="34">
         <f t="shared" si="0"/>
         <v>-0.69709010167114638</v>
       </c>
-      <c r="I24" s="22">
-        <f t="shared" si="1"/>
+      <c r="I24" s="18">
+        <f>G24 * C24</f>
+        <v>30290.98983288536</v>
+      </c>
+      <c r="J24" s="18">
+        <f>IF(G24 = 0, 0, I24 - F24)</f>
+        <v>-69709.01016711464</v>
+      </c>
+      <c r="K24" s="34">
+        <f>IFERROR((E24 - D24) / D24, 0)</f>
         <v>-5.5159518522846791E-2</v>
       </c>
-      <c r="J24" s="13">
-        <f t="shared" si="2"/>
-        <v>30290.98983288536</v>
-      </c>
-      <c r="K24" s="14">
-        <f t="shared" si="3"/>
+      <c r="L24" s="18">
+        <f t="shared" si="1"/>
         <v>94484.048147715323</v>
       </c>
-      <c r="L24" s="13">
-        <f t="shared" si="4"/>
-        <v>-69709.01016711464</v>
-      </c>
-      <c r="M24" s="14">
-        <f t="shared" si="5"/>
+      <c r="M24" s="18">
+        <f>IF(G24 = 0, 0, L24 - F24)</f>
         <v>-5515.9518522846774</v>
       </c>
     </row>
@@ -8044,32 +8150,32 @@
       <c r="F25" s="13">
         <v>100000</v>
       </c>
-      <c r="G25" s="20">
-        <f t="shared" si="6"/>
+      <c r="G25" s="32">
+        <f t="shared" si="2"/>
         <v>819.67213114754099</v>
       </c>
-      <c r="H25" s="23">
+      <c r="H25" s="34">
         <f t="shared" si="0"/>
         <v>-0.57295081967213124</v>
       </c>
-      <c r="I25" s="22">
-        <f t="shared" si="1"/>
+      <c r="I25" s="18">
+        <f>G25 * C25</f>
+        <v>42704.918032786889</v>
+      </c>
+      <c r="J25" s="18">
+        <f>IF(G25 = 0, 0, I25 - F25)</f>
+        <v>-57295.081967213111</v>
+      </c>
+      <c r="K25" s="34">
+        <f>IFERROR((E25 - D25) / D25, 0)</f>
         <v>-8.1967213114754103E-3</v>
       </c>
-      <c r="J25" s="13">
-        <f t="shared" si="2"/>
-        <v>42704.918032786889</v>
-      </c>
-      <c r="K25" s="14">
-        <f t="shared" si="3"/>
+      <c r="L25" s="18">
+        <f t="shared" si="1"/>
         <v>99180.327868852459</v>
       </c>
-      <c r="L25" s="13">
-        <f t="shared" si="4"/>
-        <v>-57295.081967213111</v>
-      </c>
-      <c r="M25" s="14">
-        <f t="shared" si="5"/>
+      <c r="M25" s="18">
+        <f>IF(G25 = 0, 0, L25 - F25)</f>
         <v>-819.67213114754122</v>
       </c>
     </row>
@@ -8092,32 +8198,32 @@
       <c r="F26" s="13">
         <v>100000</v>
       </c>
-      <c r="G26" s="20">
-        <f t="shared" si="6"/>
+      <c r="G26" s="32">
+        <f t="shared" si="2"/>
         <v>17.064846416382252</v>
       </c>
-      <c r="H26" s="23">
+      <c r="H26" s="34">
         <f t="shared" si="0"/>
         <v>-0.55290102389078499</v>
       </c>
-      <c r="I26" s="22">
-        <f t="shared" si="1"/>
+      <c r="I26" s="18">
+        <f>G26 * C26</f>
+        <v>44709.8976109215</v>
+      </c>
+      <c r="J26" s="18">
+        <f>IF(G26 = 0, 0, I26 - F26)</f>
+        <v>-55290.1023890785</v>
+      </c>
+      <c r="K26" s="34">
+        <f>IFERROR((E26 - D26) / D26, 0)</f>
         <v>-3.9249146757679182E-2</v>
       </c>
-      <c r="J26" s="13">
-        <f t="shared" si="2"/>
-        <v>44709.8976109215</v>
-      </c>
-      <c r="K26" s="14">
-        <f t="shared" si="3"/>
+      <c r="L26" s="18">
+        <f t="shared" si="1"/>
         <v>96075.085324232088</v>
       </c>
-      <c r="L26" s="13">
-        <f t="shared" si="4"/>
-        <v>-55290.1023890785</v>
-      </c>
-      <c r="M26" s="14">
-        <f t="shared" si="5"/>
+      <c r="M26" s="18">
+        <f>IF(G26 = 0, 0, L26 - F26)</f>
         <v>-3924.9146757679118</v>
       </c>
     </row>
@@ -8136,32 +8242,32 @@
       <c r="F27" s="13">
         <v>100000</v>
       </c>
-      <c r="G27" s="20">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="H27" s="23">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I27" s="22">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J27" s="13">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K27" s="14">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L27" s="13">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="M27" s="14">
-        <f t="shared" si="5"/>
+      <c r="G27" s="32">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H27" s="34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I27" s="18">
+        <f>G27 * C27</f>
+        <v>0</v>
+      </c>
+      <c r="J27" s="18">
+        <f>IF(G27 = 0, 0, I27 - F27)</f>
+        <v>0</v>
+      </c>
+      <c r="K27" s="34">
+        <f>IFERROR((E27 - D27) / D27, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="L27" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M27" s="18">
+        <f>IF(G27 = 0, 0, L27 - F27)</f>
         <v>0</v>
       </c>
     </row>
@@ -8184,32 +8290,32 @@
       <c r="F28" s="13">
         <v>100000</v>
       </c>
-      <c r="G28" s="20">
-        <f t="shared" si="6"/>
+      <c r="G28" s="32">
+        <f t="shared" si="2"/>
         <v>2777.7777777777778</v>
       </c>
-      <c r="H28" s="23">
+      <c r="H28" s="34">
         <f t="shared" si="0"/>
         <v>-0.50555555555555554</v>
       </c>
-      <c r="I28" s="22">
-        <f t="shared" si="1"/>
+      <c r="I28" s="18">
+        <f>G28 * C28</f>
+        <v>49444.444444444445</v>
+      </c>
+      <c r="J28" s="18">
+        <f>IF(G28 = 0, 0, I28 - F28)</f>
+        <v>-50555.555555555555</v>
+      </c>
+      <c r="K28" s="34">
+        <f>IFERROR((E28 - D28) / D28, 0)</f>
         <v>1.1111111111111072E-2</v>
       </c>
-      <c r="J28" s="13">
-        <f t="shared" si="2"/>
-        <v>49444.444444444445</v>
-      </c>
-      <c r="K28" s="14">
-        <f t="shared" si="3"/>
+      <c r="L28" s="18">
+        <f t="shared" si="1"/>
         <v>101111.11111111111</v>
       </c>
-      <c r="L28" s="13">
-        <f t="shared" si="4"/>
-        <v>-50555.555555555555</v>
-      </c>
-      <c r="M28" s="14">
-        <f t="shared" si="5"/>
+      <c r="M28" s="18">
+        <f>IF(G28 = 0, 0, L28 - F28)</f>
         <v>1111.1111111111095</v>
       </c>
     </row>
@@ -8228,32 +8334,32 @@
       <c r="F29" s="13">
         <v>100000</v>
       </c>
-      <c r="G29" s="20">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="H29" s="23">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I29" s="22">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J29" s="13">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K29" s="14">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L29" s="13">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="M29" s="14">
-        <f t="shared" si="5"/>
+      <c r="G29" s="32">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H29" s="34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I29" s="18">
+        <f>G29 * C29</f>
+        <v>0</v>
+      </c>
+      <c r="J29" s="18">
+        <f>IF(G29 = 0, 0, I29 - F29)</f>
+        <v>0</v>
+      </c>
+      <c r="K29" s="34">
+        <f>IFERROR((E29 - D29) / D29, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="L29" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M29" s="18">
+        <f>IF(G29 = 0, 0, L29 - F29)</f>
         <v>0</v>
       </c>
     </row>
@@ -8276,32 +8382,32 @@
       <c r="F30" s="13">
         <v>100000</v>
       </c>
-      <c r="G30" s="20">
-        <f t="shared" si="6"/>
+      <c r="G30" s="32">
+        <f t="shared" si="2"/>
         <v>2624.6719160104985</v>
       </c>
-      <c r="H30" s="23">
+      <c r="H30" s="34">
         <f t="shared" si="0"/>
         <v>-0.24409448818897639</v>
       </c>
-      <c r="I30" s="22">
-        <f t="shared" si="1"/>
+      <c r="I30" s="18">
+        <f>G30 * C30</f>
+        <v>75590.551181102361</v>
+      </c>
+      <c r="J30" s="18">
+        <f>IF(G30 = 0, 0, I30 - F30)</f>
+        <v>-24409.448818897639</v>
+      </c>
+      <c r="K30" s="34">
+        <f>IFERROR((E30 - D30) / D30, 0)</f>
         <v>2.6246719160105359E-3</v>
       </c>
-      <c r="J30" s="13">
-        <f t="shared" si="2"/>
-        <v>75590.551181102361</v>
-      </c>
-      <c r="K30" s="14">
-        <f t="shared" si="3"/>
+      <c r="L30" s="18">
+        <f t="shared" si="1"/>
         <v>100262.46719160106</v>
       </c>
-      <c r="L30" s="13">
-        <f t="shared" si="4"/>
-        <v>-24409.448818897639</v>
-      </c>
-      <c r="M30" s="14">
-        <f t="shared" si="5"/>
+      <c r="M30" s="18">
+        <f>IF(G30 = 0, 0, L30 - F30)</f>
         <v>262.46719160105567</v>
       </c>
     </row>
@@ -8324,32 +8430,32 @@
       <c r="F31" s="13">
         <v>100000</v>
       </c>
-      <c r="G31" s="20">
-        <f t="shared" si="6"/>
+      <c r="G31" s="32">
+        <f t="shared" si="2"/>
         <v>19.665683382497541</v>
       </c>
-      <c r="H31" s="23">
+      <c r="H31" s="34">
         <f t="shared" si="0"/>
         <v>-0.62045231071779749</v>
       </c>
-      <c r="I31" s="22">
-        <f t="shared" si="1"/>
+      <c r="I31" s="18">
+        <f>G31 * C31</f>
+        <v>37954.768928220255</v>
+      </c>
+      <c r="J31" s="18">
+        <f>IF(G31 = 0, 0, I31 - F31)</f>
+        <v>-62045.231071779745</v>
+      </c>
+      <c r="K31" s="34">
+        <f>IFERROR((E31 - D31) / D31, 0)</f>
         <v>-5.2114060963618487E-2</v>
       </c>
-      <c r="J31" s="13">
-        <f t="shared" si="2"/>
-        <v>37954.768928220255</v>
-      </c>
-      <c r="K31" s="14">
-        <f t="shared" si="3"/>
+      <c r="L31" s="18">
+        <f t="shared" si="1"/>
         <v>94788.593903638146</v>
       </c>
-      <c r="L31" s="13">
-        <f t="shared" si="4"/>
-        <v>-62045.231071779745</v>
-      </c>
-      <c r="M31" s="14">
-        <f t="shared" si="5"/>
+      <c r="M31" s="18">
+        <f>IF(G31 = 0, 0, L31 - F31)</f>
         <v>-5211.406096361854</v>
       </c>
     </row>
@@ -8372,32 +8478,32 @@
       <c r="F32" s="13">
         <v>100000</v>
       </c>
-      <c r="G32" s="20">
-        <f t="shared" si="6"/>
+      <c r="G32" s="32">
+        <f t="shared" si="2"/>
         <v>952.38095238095241</v>
       </c>
-      <c r="H32" s="23">
+      <c r="H32" s="34">
         <f t="shared" si="0"/>
         <v>8.8571428571428577</v>
       </c>
-      <c r="I32" s="22">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J32" s="13">
-        <f t="shared" si="2"/>
+      <c r="I32" s="18">
+        <f>G32 * C32</f>
         <v>985714.2857142858</v>
       </c>
-      <c r="K32" s="14">
-        <f t="shared" si="3"/>
-        <v>100000</v>
-      </c>
-      <c r="L32" s="13">
-        <f t="shared" si="4"/>
+      <c r="J32" s="18">
+        <f>IF(G32 = 0, 0, I32 - F32)</f>
         <v>885714.2857142858</v>
       </c>
-      <c r="M32" s="14">
-        <f t="shared" si="5"/>
+      <c r="K32" s="34">
+        <f>IFERROR((E32 - D32) / D32, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="L32" s="18">
+        <f t="shared" si="1"/>
+        <v>100000</v>
+      </c>
+      <c r="M32" s="18">
+        <f>IF(G32 = 0, 0, L32 - F32)</f>
         <v>0</v>
       </c>
     </row>
@@ -8420,32 +8526,32 @@
       <c r="F33" s="13">
         <v>100000</v>
       </c>
-      <c r="G33" s="20">
-        <f t="shared" si="6"/>
+      <c r="G33" s="32">
+        <f t="shared" si="2"/>
         <v>4405.2863436123353</v>
       </c>
-      <c r="H33" s="23">
+      <c r="H33" s="34">
         <f t="shared" si="0"/>
         <v>-0.50220264317180607</v>
       </c>
-      <c r="I33" s="22">
-        <f t="shared" si="1"/>
+      <c r="I33" s="18">
+        <f>G33 * C33</f>
+        <v>49779.735682819395</v>
+      </c>
+      <c r="J33" s="18">
+        <f>IF(G33 = 0, 0, I33 - F33)</f>
+        <v>-50220.264317180605</v>
+      </c>
+      <c r="K33" s="34">
+        <f>IFERROR((E33 - D33) / D33, 0)</f>
         <v>4.4052863436123977E-3</v>
       </c>
-      <c r="J33" s="13">
-        <f t="shared" si="2"/>
-        <v>49779.735682819395</v>
-      </c>
-      <c r="K33" s="14">
-        <f t="shared" si="3"/>
+      <c r="L33" s="18">
+        <f t="shared" si="1"/>
         <v>100440.52863436125</v>
       </c>
-      <c r="L33" s="13">
-        <f t="shared" si="4"/>
-        <v>-50220.264317180605</v>
-      </c>
-      <c r="M33" s="14">
-        <f t="shared" si="5"/>
+      <c r="M33" s="18">
+        <f>IF(G33 = 0, 0, L33 - F33)</f>
         <v>440.52863436125335</v>
       </c>
     </row>
@@ -8468,32 +8574,32 @@
       <c r="F34" s="13">
         <v>100000</v>
       </c>
-      <c r="G34" s="20">
-        <f t="shared" si="6"/>
+      <c r="G34" s="32">
+        <f t="shared" si="2"/>
         <v>1.69548999660902</v>
       </c>
-      <c r="H34" s="23">
+      <c r="H34" s="34">
         <f t="shared" si="0"/>
         <v>-0.8822482197355036</v>
       </c>
-      <c r="I34" s="22">
-        <f t="shared" si="1"/>
+      <c r="I34" s="18">
+        <f>G34 * C34</f>
+        <v>11775.178026449645</v>
+      </c>
+      <c r="J34" s="18">
+        <f>IF(G34 = 0, 0, I34 - F34)</f>
+        <v>-88224.821973550352</v>
+      </c>
+      <c r="K34" s="34">
+        <f>IFERROR((E34 - D34) / D34, 0)</f>
         <v>1.2546625974906748E-2</v>
       </c>
-      <c r="J34" s="13">
-        <f t="shared" si="2"/>
-        <v>11775.178026449645</v>
-      </c>
-      <c r="K34" s="14">
-        <f t="shared" si="3"/>
+      <c r="L34" s="18">
+        <f t="shared" si="1"/>
         <v>101254.66259749068</v>
       </c>
-      <c r="L34" s="13">
-        <f t="shared" si="4"/>
-        <v>-88224.821973550352</v>
-      </c>
-      <c r="M34" s="14">
-        <f t="shared" si="5"/>
+      <c r="M34" s="18">
+        <f>IF(G34 = 0, 0, L34 - F34)</f>
         <v>1254.6625974906783</v>
       </c>
     </row>
@@ -8516,32 +8622,32 @@
       <c r="F35" s="13">
         <v>100000</v>
       </c>
-      <c r="G35" s="20">
-        <f t="shared" si="6"/>
+      <c r="G35" s="32">
+        <f t="shared" si="2"/>
         <v>2.0764119601328903</v>
       </c>
-      <c r="H35" s="23">
+      <c r="H35" s="34">
         <f t="shared" si="0"/>
         <v>-0.51702657807308972</v>
       </c>
-      <c r="I35" s="22">
-        <f t="shared" si="1"/>
+      <c r="I35" s="18">
+        <f>G35 * C35</f>
+        <v>48297.342192691031</v>
+      </c>
+      <c r="J35" s="18">
+        <f>IF(G35 = 0, 0, I35 - F35)</f>
+        <v>-51702.657807308969</v>
+      </c>
+      <c r="K35" s="34">
+        <f>IFERROR((E35 - D35) / D35, 0)</f>
         <v>3.0730897009966777E-2</v>
       </c>
-      <c r="J35" s="13">
-        <f t="shared" si="2"/>
-        <v>48297.342192691031</v>
-      </c>
-      <c r="K35" s="14">
-        <f t="shared" si="3"/>
+      <c r="L35" s="18">
+        <f t="shared" si="1"/>
         <v>103073.08970099667</v>
       </c>
-      <c r="L35" s="13">
-        <f t="shared" si="4"/>
-        <v>-51702.657807308969</v>
-      </c>
-      <c r="M35" s="14">
-        <f t="shared" si="5"/>
+      <c r="M35" s="18">
+        <f>IF(G35 = 0, 0, L35 - F35)</f>
         <v>3073.089700996672</v>
       </c>
     </row>
@@ -8564,32 +8670,32 @@
       <c r="F36" s="13">
         <v>100000</v>
       </c>
-      <c r="G36" s="20">
-        <f t="shared" si="6"/>
+      <c r="G36" s="32">
+        <f t="shared" si="2"/>
         <v>0.23792529145848204</v>
       </c>
-      <c r="H36" s="23">
+      <c r="H36" s="34">
         <f t="shared" si="0"/>
         <v>-0.67309064953604569</v>
       </c>
-      <c r="I36" s="22">
-        <f t="shared" si="1"/>
+      <c r="I36" s="18">
+        <f>G36 * C36</f>
+        <v>32690.935046395432</v>
+      </c>
+      <c r="J36" s="18">
+        <f>IF(G36 = 0, 0, I36 - F36)</f>
+        <v>-67309.064953604568</v>
+      </c>
+      <c r="K36" s="34">
+        <f>IFERROR((E36 - D36) / D36, 0)</f>
         <v>-7.6136093266714255E-3</v>
       </c>
-      <c r="J36" s="13">
-        <f t="shared" si="2"/>
-        <v>32690.935046395432</v>
-      </c>
-      <c r="K36" s="14">
-        <f t="shared" si="3"/>
+      <c r="L36" s="18">
+        <f t="shared" si="1"/>
         <v>99238.639067332857</v>
       </c>
-      <c r="L36" s="13">
-        <f t="shared" si="4"/>
-        <v>-67309.064953604568</v>
-      </c>
-      <c r="M36" s="14">
-        <f t="shared" si="5"/>
+      <c r="M36" s="18">
+        <f>IF(G36 = 0, 0, L36 - F36)</f>
         <v>-761.36093266714306</v>
       </c>
     </row>
@@ -8612,32 +8718,32 @@
       <c r="F37" s="13">
         <v>100000</v>
       </c>
-      <c r="G37" s="20">
-        <f t="shared" si="6"/>
+      <c r="G37" s="32">
+        <f t="shared" si="2"/>
         <v>555.55555555555554</v>
       </c>
-      <c r="H37" s="23">
+      <c r="H37" s="34">
         <f t="shared" si="0"/>
         <v>-0.32222222222222224</v>
       </c>
-      <c r="I37" s="22">
-        <f t="shared" si="1"/>
+      <c r="I37" s="18">
+        <f>G37 * C37</f>
+        <v>67777.777777777781</v>
+      </c>
+      <c r="J37" s="18">
+        <f>IF(G37 = 0, 0, I37 - F37)</f>
+        <v>-32222.222222222219</v>
+      </c>
+      <c r="K37" s="34">
+        <f>IFERROR((E37 - D37) / D37, 0)</f>
         <v>-1.1111111111111112E-2</v>
       </c>
-      <c r="J37" s="13">
-        <f t="shared" si="2"/>
-        <v>67777.777777777781</v>
-      </c>
-      <c r="K37" s="14">
-        <f t="shared" si="3"/>
+      <c r="L37" s="18">
+        <f t="shared" si="1"/>
         <v>98888.888888888891</v>
       </c>
-      <c r="L37" s="13">
-        <f t="shared" si="4"/>
-        <v>-32222.222222222219</v>
-      </c>
-      <c r="M37" s="14">
-        <f t="shared" si="5"/>
+      <c r="M37" s="18">
+        <f>IF(G37 = 0, 0, L37 - F37)</f>
         <v>-1111.1111111111095</v>
       </c>
     </row>
@@ -8660,32 +8766,32 @@
       <c r="F38" s="13">
         <v>100000</v>
       </c>
-      <c r="G38" s="20">
-        <f t="shared" si="6"/>
+      <c r="G38" s="32">
+        <f t="shared" si="2"/>
         <v>1221.001221001221</v>
       </c>
-      <c r="H38" s="23">
+      <c r="H38" s="34">
         <f t="shared" si="0"/>
         <v>0.74603174603174593</v>
       </c>
-      <c r="I38" s="22">
-        <f t="shared" si="1"/>
+      <c r="I38" s="18">
+        <f>G38 * C38</f>
+        <v>174603.17460317462</v>
+      </c>
+      <c r="J38" s="18">
+        <f>IF(G38 = 0, 0, I38 - F38)</f>
+        <v>74603.174603174615</v>
+      </c>
+      <c r="K38" s="34">
+        <f>IFERROR((E38 - D38) / D38, 0)</f>
         <v>-0.15628815628815643</v>
       </c>
-      <c r="J38" s="13">
-        <f t="shared" si="2"/>
-        <v>174603.17460317462</v>
-      </c>
-      <c r="K38" s="14">
-        <f t="shared" si="3"/>
+      <c r="L38" s="18">
+        <f t="shared" si="1"/>
         <v>84371.184371184369</v>
       </c>
-      <c r="L38" s="13">
-        <f t="shared" si="4"/>
-        <v>74603.174603174615</v>
-      </c>
-      <c r="M38" s="14">
-        <f t="shared" si="5"/>
+      <c r="M38" s="18">
+        <f>IF(G38 = 0, 0, L38 - F38)</f>
         <v>-15628.815628815631</v>
       </c>
     </row>
@@ -8708,32 +8814,32 @@
       <c r="F39" s="13">
         <v>100000</v>
       </c>
-      <c r="G39" s="20">
-        <f t="shared" si="6"/>
+      <c r="G39" s="32">
+        <f t="shared" si="2"/>
         <v>9.0090090090090094</v>
       </c>
-      <c r="H39" s="23">
+      <c r="H39" s="34">
         <f t="shared" si="0"/>
         <v>-0.67792792792792789</v>
       </c>
-      <c r="I39" s="22">
-        <f t="shared" si="1"/>
+      <c r="I39" s="18">
+        <f>G39 * C39</f>
+        <v>32207.207207207208</v>
+      </c>
+      <c r="J39" s="18">
+        <f>IF(G39 = 0, 0, I39 - F39)</f>
+        <v>-67792.792792792796</v>
+      </c>
+      <c r="K39" s="34">
+        <f>IFERROR((E39 - D39) / D39, 0)</f>
         <v>-9.0090090090090091E-4</v>
       </c>
-      <c r="J39" s="13">
-        <f t="shared" si="2"/>
-        <v>32207.207207207208</v>
-      </c>
-      <c r="K39" s="14">
-        <f t="shared" si="3"/>
+      <c r="L39" s="18">
+        <f t="shared" si="1"/>
         <v>99909.909909909911</v>
       </c>
-      <c r="L39" s="13">
-        <f t="shared" si="4"/>
-        <v>-67792.792792792796</v>
-      </c>
-      <c r="M39" s="14">
-        <f t="shared" si="5"/>
+      <c r="M39" s="18">
+        <f>IF(G39 = 0, 0, L39 - F39)</f>
         <v>-90.090090090088779</v>
       </c>
     </row>
@@ -8756,32 +8862,32 @@
       <c r="F40" s="13">
         <v>100000</v>
       </c>
-      <c r="G40" s="20">
-        <f t="shared" si="6"/>
+      <c r="G40" s="32">
+        <f t="shared" si="2"/>
         <v>2.3803856224708403E-2</v>
       </c>
-      <c r="H40" s="23">
+      <c r="H40" s="34">
         <f t="shared" si="0"/>
         <v>-0.1430611759104975</v>
       </c>
-      <c r="I40" s="22">
-        <f t="shared" si="1"/>
+      <c r="I40" s="18">
+        <f>G40 * C40</f>
+        <v>85693.882408950245</v>
+      </c>
+      <c r="J40" s="18">
+        <f>IF(G40 = 0, 0, I40 - F40)</f>
+        <v>-14306.117591049755</v>
+      </c>
+      <c r="K40" s="34">
+        <f>IFERROR((E40 - D40) / D40, 0)</f>
         <v>3.3325398714591763E-3</v>
       </c>
-      <c r="J40" s="13">
-        <f t="shared" si="2"/>
-        <v>85693.882408950245</v>
-      </c>
-      <c r="K40" s="14">
-        <f t="shared" si="3"/>
+      <c r="L40" s="18">
+        <f t="shared" si="1"/>
         <v>100333.25398714592</v>
       </c>
-      <c r="L40" s="13">
-        <f t="shared" si="4"/>
-        <v>-14306.117591049755</v>
-      </c>
-      <c r="M40" s="14">
-        <f t="shared" si="5"/>
+      <c r="M40" s="18">
+        <f>IF(G40 = 0, 0, L40 - F40)</f>
         <v>333.25398714591574</v>
       </c>
     </row>
@@ -8804,32 +8910,32 @@
       <c r="F41" s="13">
         <v>100000</v>
       </c>
-      <c r="G41" s="20">
-        <f t="shared" si="6"/>
+      <c r="G41" s="32">
+        <f t="shared" si="2"/>
         <v>74.626865671641795</v>
       </c>
-      <c r="H41" s="23">
+      <c r="H41" s="34">
         <f t="shared" si="0"/>
         <v>-0.33432835820895523</v>
       </c>
-      <c r="I41" s="22">
-        <f t="shared" si="1"/>
+      <c r="I41" s="18">
+        <f>G41 * C41</f>
+        <v>66567.164179104482</v>
+      </c>
+      <c r="J41" s="18">
+        <f>IF(G41 = 0, 0, I41 - F41)</f>
+        <v>-33432.835820895518</v>
+      </c>
+      <c r="K41" s="34">
+        <f>IFERROR((E41 - D41) / D41, 0)</f>
         <v>-3.3582089552238806E-2</v>
       </c>
-      <c r="J41" s="13">
-        <f t="shared" si="2"/>
-        <v>66567.164179104482</v>
-      </c>
-      <c r="K41" s="14">
-        <f t="shared" si="3"/>
+      <c r="L41" s="18">
+        <f t="shared" si="1"/>
         <v>96641.791044776124</v>
       </c>
-      <c r="L41" s="13">
-        <f t="shared" si="4"/>
-        <v>-33432.835820895518</v>
-      </c>
-      <c r="M41" s="14">
-        <f t="shared" si="5"/>
+      <c r="M41" s="18">
+        <f>IF(G41 = 0, 0, L41 - F41)</f>
         <v>-3358.2089552238758</v>
       </c>
     </row>
@@ -8852,32 +8958,32 @@
       <c r="F42" s="13">
         <v>100000</v>
       </c>
-      <c r="G42" s="20">
-        <f t="shared" si="6"/>
+      <c r="G42" s="32">
+        <f t="shared" si="2"/>
         <v>103.19917440660474</v>
       </c>
-      <c r="H42" s="23">
+      <c r="H42" s="34">
         <f t="shared" si="0"/>
         <v>-0.32198142414860681</v>
       </c>
-      <c r="I42" s="22">
-        <f t="shared" si="1"/>
+      <c r="I42" s="18">
+        <f>G42 * C42</f>
+        <v>67801.857585139311</v>
+      </c>
+      <c r="J42" s="18">
+        <f>IF(G42 = 0, 0, I42 - F42)</f>
+        <v>-32198.142414860689</v>
+      </c>
+      <c r="K42" s="34">
+        <f>IFERROR((E42 - D42) / D42, 0)</f>
         <v>2.0639834881320948E-3</v>
       </c>
-      <c r="J42" s="13">
-        <f t="shared" si="2"/>
-        <v>67801.857585139311</v>
-      </c>
-      <c r="K42" s="14">
-        <f t="shared" si="3"/>
+      <c r="L42" s="18">
+        <f t="shared" si="1"/>
         <v>100206.39834881321</v>
       </c>
-      <c r="L42" s="13">
-        <f t="shared" si="4"/>
-        <v>-32198.142414860689</v>
-      </c>
-      <c r="M42" s="14">
-        <f t="shared" si="5"/>
+      <c r="M42" s="18">
+        <f>IF(G42 = 0, 0, L42 - F42)</f>
         <v>206.39834881320712</v>
       </c>
     </row>
@@ -8900,32 +9006,32 @@
       <c r="F43" s="13">
         <v>100000</v>
       </c>
-      <c r="G43" s="20">
-        <f t="shared" si="6"/>
+      <c r="G43" s="32">
+        <f t="shared" si="2"/>
         <v>19.029495718363464</v>
       </c>
-      <c r="H43" s="23">
+      <c r="H43" s="34">
         <f t="shared" si="0"/>
         <v>10.756422454804948</v>
       </c>
-      <c r="I43" s="22">
-        <f t="shared" si="1"/>
+      <c r="I43" s="18">
+        <f>G43 * C43</f>
+        <v>1175642.2454804948</v>
+      </c>
+      <c r="J43" s="18">
+        <f>IF(G43 = 0, 0, I43 - F43)</f>
+        <v>1075642.2454804948</v>
+      </c>
+      <c r="K43" s="34">
+        <f>IFERROR((E43 - D43) / D43, 0)</f>
         <v>5.3282588011417699E-2</v>
       </c>
-      <c r="J43" s="13">
-        <f t="shared" si="2"/>
-        <v>1175642.2454804948</v>
-      </c>
-      <c r="K43" s="14">
-        <f t="shared" si="3"/>
+      <c r="L43" s="18">
+        <f t="shared" si="1"/>
         <v>105328.25880114177</v>
       </c>
-      <c r="L43" s="13">
-        <f t="shared" si="4"/>
-        <v>1075642.2454804948</v>
-      </c>
-      <c r="M43" s="14">
-        <f t="shared" si="5"/>
+      <c r="M43" s="18">
+        <f>IF(G43 = 0, 0, L43 - F43)</f>
         <v>5328.2588011417683</v>
       </c>
     </row>
@@ -8948,32 +9054,32 @@
       <c r="F44" s="13">
         <v>100000</v>
       </c>
-      <c r="G44" s="20">
-        <f t="shared" si="6"/>
+      <c r="G44" s="32">
+        <f t="shared" si="2"/>
         <v>104.60251046025104</v>
       </c>
-      <c r="H44" s="23">
+      <c r="H44" s="34">
         <f t="shared" si="0"/>
         <v>-5.4393305439330547E-2</v>
       </c>
-      <c r="I44" s="22">
-        <f t="shared" si="1"/>
+      <c r="I44" s="18">
+        <f>G44 * C44</f>
+        <v>94560.669456066942</v>
+      </c>
+      <c r="J44" s="18">
+        <f>IF(G44 = 0, 0, I44 - F44)</f>
+        <v>-5439.3305439330579</v>
+      </c>
+      <c r="K44" s="34">
+        <f>IFERROR((E44 - D44) / D44, 0)</f>
         <v>2.5104602510460251E-2</v>
       </c>
-      <c r="J44" s="13">
-        <f t="shared" si="2"/>
-        <v>94560.669456066942</v>
-      </c>
-      <c r="K44" s="14">
-        <f t="shared" si="3"/>
+      <c r="L44" s="18">
+        <f t="shared" si="1"/>
         <v>102510.46025104602</v>
       </c>
-      <c r="L44" s="13">
-        <f t="shared" si="4"/>
-        <v>-5439.3305439330579</v>
-      </c>
-      <c r="M44" s="14">
-        <f t="shared" si="5"/>
+      <c r="M44" s="18">
+        <f>IF(G44 = 0, 0, L44 - F44)</f>
         <v>2510.4602510460245</v>
       </c>
     </row>
@@ -8996,32 +9102,32 @@
       <c r="F45" s="13">
         <v>100000</v>
       </c>
-      <c r="G45" s="20">
-        <f t="shared" si="6"/>
+      <c r="G45" s="32">
+        <f t="shared" si="2"/>
         <v>769.23076923076928</v>
       </c>
-      <c r="H45" s="23">
+      <c r="H45" s="34">
         <f t="shared" si="0"/>
         <v>-0.28000000000000003</v>
       </c>
-      <c r="I45" s="22">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J45" s="13">
-        <f t="shared" si="2"/>
+      <c r="I45" s="18">
+        <f>G45 * C45</f>
         <v>72000</v>
       </c>
-      <c r="K45" s="14">
-        <f t="shared" si="3"/>
-        <v>100000</v>
-      </c>
-      <c r="L45" s="13">
-        <f t="shared" si="4"/>
+      <c r="J45" s="18">
+        <f>IF(G45 = 0, 0, I45 - F45)</f>
         <v>-28000</v>
       </c>
-      <c r="M45" s="14">
-        <f t="shared" si="5"/>
+      <c r="K45" s="34">
+        <f>IFERROR((E45 - D45) / D45, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="L45" s="18">
+        <f t="shared" si="1"/>
+        <v>100000</v>
+      </c>
+      <c r="M45" s="18">
+        <f>IF(G45 = 0, 0, L45 - F45)</f>
         <v>0</v>
       </c>
     </row>
@@ -9044,32 +9150,32 @@
       <c r="F46" s="13">
         <v>100000</v>
       </c>
-      <c r="G46" s="20">
-        <f t="shared" si="6"/>
+      <c r="G46" s="32">
+        <f t="shared" si="2"/>
         <v>284.90028490028487</v>
       </c>
-      <c r="H46" s="23">
+      <c r="H46" s="34">
         <f t="shared" si="0"/>
         <v>-0.33048433048433046</v>
       </c>
-      <c r="I46" s="22">
-        <f t="shared" si="1"/>
+      <c r="I46" s="18">
+        <f>G46 * C46</f>
+        <v>66951.566951566943</v>
+      </c>
+      <c r="J46" s="18">
+        <f>IF(G46 = 0, 0, I46 - F46)</f>
+        <v>-33048.433048433057</v>
+      </c>
+      <c r="K46" s="34">
+        <f>IFERROR((E46 - D46) / D46, 0)</f>
         <v>1.4245014245014245E-2</v>
       </c>
-      <c r="J46" s="13">
-        <f t="shared" si="2"/>
-        <v>66951.566951566943</v>
-      </c>
-      <c r="K46" s="14">
-        <f t="shared" si="3"/>
+      <c r="L46" s="18">
+        <f t="shared" si="1"/>
         <v>101424.50142450142</v>
       </c>
-      <c r="L46" s="13">
-        <f t="shared" si="4"/>
-        <v>-33048.433048433057</v>
-      </c>
-      <c r="M46" s="14">
-        <f t="shared" si="5"/>
+      <c r="M46" s="18">
+        <f>IF(G46 = 0, 0, L46 - F46)</f>
         <v>1424.5014245014172</v>
       </c>
     </row>
@@ -9092,32 +9198,32 @@
       <c r="F47" s="13">
         <v>100000</v>
       </c>
-      <c r="G47" s="20">
-        <f t="shared" si="6"/>
+      <c r="G47" s="32">
+        <f t="shared" si="2"/>
         <v>3.352329869259135</v>
       </c>
-      <c r="H47" s="23">
+      <c r="H47" s="34">
         <f t="shared" si="0"/>
         <v>-0.434126718069058</v>
       </c>
-      <c r="I47" s="22">
-        <f t="shared" si="1"/>
+      <c r="I47" s="18">
+        <f>G47 * C47</f>
+        <v>56587.328193094196</v>
+      </c>
+      <c r="J47" s="18">
+        <f>IF(G47 = 0, 0, I47 - F47)</f>
+        <v>-43412.671806905804</v>
+      </c>
+      <c r="K47" s="34">
+        <f>IFERROR((E47 - D47) / D47, 0)</f>
         <v>7.3751257123700975E-3</v>
       </c>
-      <c r="J47" s="13">
-        <f t="shared" si="2"/>
-        <v>56587.328193094196</v>
-      </c>
-      <c r="K47" s="14">
-        <f t="shared" si="3"/>
+      <c r="L47" s="18">
+        <f t="shared" si="1"/>
         <v>100737.51257123701</v>
       </c>
-      <c r="L47" s="13">
-        <f t="shared" si="4"/>
-        <v>-43412.671806905804</v>
-      </c>
-      <c r="M47" s="14">
-        <f t="shared" si="5"/>
+      <c r="M47" s="18">
+        <f>IF(G47 = 0, 0, L47 - F47)</f>
         <v>737.51257123700634</v>
       </c>
     </row>
@@ -9140,32 +9246,32 @@
       <c r="F48" s="13">
         <v>100000</v>
       </c>
-      <c r="G48" s="20">
-        <f t="shared" si="6"/>
+      <c r="G48" s="32">
+        <f t="shared" si="2"/>
         <v>775.19379844961236</v>
       </c>
-      <c r="H48" s="23">
+      <c r="H48" s="34">
         <f t="shared" si="0"/>
         <v>2.8449612403100777</v>
       </c>
-      <c r="I48" s="22">
-        <f t="shared" si="1"/>
+      <c r="I48" s="18">
+        <f>G48 * C48</f>
+        <v>384496.12403100776</v>
+      </c>
+      <c r="J48" s="18">
+        <f>IF(G48 = 0, 0, I48 - F48)</f>
+        <v>284496.12403100776</v>
+      </c>
+      <c r="K48" s="34">
+        <f>IFERROR((E48 - D48) / D48, 0)</f>
         <v>-7.7519379844961239E-3</v>
       </c>
-      <c r="J48" s="13">
-        <f t="shared" si="2"/>
-        <v>384496.12403100776</v>
-      </c>
-      <c r="K48" s="14">
-        <f t="shared" si="3"/>
+      <c r="L48" s="18">
+        <f t="shared" si="1"/>
         <v>99224.806201550382</v>
       </c>
-      <c r="L48" s="13">
-        <f t="shared" si="4"/>
-        <v>284496.12403100776</v>
-      </c>
-      <c r="M48" s="14">
-        <f t="shared" si="5"/>
+      <c r="M48" s="18">
+        <f>IF(G48 = 0, 0, L48 - F48)</f>
         <v>-775.19379844961804</v>
       </c>
     </row>
@@ -9188,32 +9294,32 @@
       <c r="F49" s="13">
         <v>100000</v>
       </c>
-      <c r="G49" s="20">
-        <f t="shared" si="6"/>
+      <c r="G49" s="32">
+        <f t="shared" si="2"/>
         <v>2.4437927663734115E-3</v>
       </c>
-      <c r="H49" s="23">
+      <c r="H49" s="34">
         <f t="shared" si="0"/>
         <v>0.24572336265884653</v>
       </c>
-      <c r="I49" s="22">
-        <f t="shared" si="1"/>
+      <c r="I49" s="18">
+        <f>G49 * C49</f>
+        <v>124572.33626588466</v>
+      </c>
+      <c r="J49" s="18">
+        <f>IF(G49 = 0, 0, I49 - F49)</f>
+        <v>24572.33626588466</v>
+      </c>
+      <c r="K49" s="34">
+        <f>IFERROR((E49 - D49) / D49, 0)</f>
         <v>-0.14802052785923753</v>
       </c>
-      <c r="J49" s="13">
-        <f t="shared" si="2"/>
-        <v>124572.33626588466</v>
-      </c>
-      <c r="K49" s="14">
-        <f t="shared" si="3"/>
+      <c r="L49" s="18">
+        <f t="shared" si="1"/>
         <v>85197.947214076252</v>
       </c>
-      <c r="L49" s="13">
-        <f t="shared" si="4"/>
-        <v>24572.33626588466</v>
-      </c>
-      <c r="M49" s="14">
-        <f t="shared" si="5"/>
+      <c r="M49" s="18">
+        <f>IF(G49 = 0, 0, L49 - F49)</f>
         <v>-14802.052785923748</v>
       </c>
     </row>
@@ -9232,32 +9338,32 @@
       <c r="F50" s="13">
         <v>100000</v>
       </c>
-      <c r="G50" s="20">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="H50" s="23">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I50" s="22">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J50" s="13">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K50" s="14">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L50" s="13">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="M50" s="14">
-        <f t="shared" si="5"/>
+      <c r="G50" s="32">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H50" s="34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I50" s="18">
+        <f>G50 * C50</f>
+        <v>0</v>
+      </c>
+      <c r="J50" s="18">
+        <f>IF(G50 = 0, 0, I50 - F50)</f>
+        <v>0</v>
+      </c>
+      <c r="K50" s="34">
+        <f>IFERROR((E50 - D50) / D50, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="L50" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M50" s="18">
+        <f>IF(G50 = 0, 0, L50 - F50)</f>
         <v>0</v>
       </c>
     </row>
@@ -9280,32 +9386,32 @@
       <c r="F51" s="13">
         <v>100000</v>
       </c>
-      <c r="G51" s="20">
-        <f t="shared" si="6"/>
+      <c r="G51" s="32">
+        <f t="shared" si="2"/>
         <v>414.93775933609959</v>
       </c>
-      <c r="H51" s="23">
+      <c r="H51" s="34">
         <f t="shared" si="0"/>
         <v>5.3941908713692949E-2</v>
       </c>
-      <c r="I51" s="22">
-        <f t="shared" si="1"/>
+      <c r="I51" s="18">
+        <f>G51 * C51</f>
+        <v>105394.1908713693</v>
+      </c>
+      <c r="J51" s="18">
+        <f>IF(G51 = 0, 0, I51 - F51)</f>
+        <v>5394.1908713692974</v>
+      </c>
+      <c r="K51" s="34">
+        <f>IFERROR((E51 - D51) / D51, 0)</f>
         <v>-1.6597510373443983E-2</v>
       </c>
-      <c r="J51" s="13">
-        <f t="shared" si="2"/>
-        <v>105394.1908713693</v>
-      </c>
-      <c r="K51" s="14">
-        <f t="shared" si="3"/>
+      <c r="L51" s="18">
+        <f t="shared" si="1"/>
         <v>98340.248962655605</v>
       </c>
-      <c r="L51" s="13">
-        <f t="shared" si="4"/>
-        <v>5394.1908713692974</v>
-      </c>
-      <c r="M51" s="14">
-        <f t="shared" si="5"/>
+      <c r="M51" s="18">
+        <f>IF(G51 = 0, 0, L51 - F51)</f>
         <v>-1659.7510373443947</v>
       </c>
     </row>
@@ -9328,32 +9434,32 @@
       <c r="F52" s="13">
         <v>100000</v>
       </c>
-      <c r="G52" s="20">
-        <f t="shared" si="6"/>
+      <c r="G52" s="32">
+        <f t="shared" si="2"/>
         <v>168.91891891891891</v>
       </c>
-      <c r="H52" s="23">
+      <c r="H52" s="34">
         <f t="shared" si="0"/>
         <v>-0.57094594594594594</v>
       </c>
-      <c r="I52" s="22">
-        <f t="shared" si="1"/>
+      <c r="I52" s="18">
+        <f>G52 * C52</f>
+        <v>42905.4054054054</v>
+      </c>
+      <c r="J52" s="18">
+        <f>IF(G52 = 0, 0, I52 - F52)</f>
+        <v>-57094.5945945946</v>
+      </c>
+      <c r="K52" s="34">
+        <f>IFERROR((E52 - D52) / D52, 0)</f>
         <v>-1.6891891891891893E-3</v>
       </c>
-      <c r="J52" s="13">
-        <f t="shared" si="2"/>
-        <v>42905.4054054054</v>
-      </c>
-      <c r="K52" s="14">
-        <f t="shared" si="3"/>
+      <c r="L52" s="18">
+        <f t="shared" si="1"/>
         <v>99831.08108108108</v>
       </c>
-      <c r="L52" s="13">
-        <f t="shared" si="4"/>
-        <v>-57094.5945945946</v>
-      </c>
-      <c r="M52" s="14">
-        <f t="shared" si="5"/>
+      <c r="M52" s="18">
+        <f>IF(G52 = 0, 0, L52 - F52)</f>
         <v>-168.9189189189201</v>
       </c>
     </row>
@@ -9376,32 +9482,32 @@
       <c r="F53" s="13">
         <v>100000</v>
       </c>
-      <c r="G53" s="20">
-        <f t="shared" si="6"/>
+      <c r="G53" s="32">
+        <f t="shared" si="2"/>
         <v>3.5752592062924564</v>
       </c>
-      <c r="H53" s="23">
+      <c r="H53" s="34">
         <f t="shared" si="0"/>
         <v>-0.34465498748659279</v>
       </c>
-      <c r="I53" s="22">
-        <f t="shared" si="1"/>
+      <c r="I53" s="18">
+        <f>G53 * C53</f>
+        <v>65534.501251340727</v>
+      </c>
+      <c r="J53" s="18">
+        <f>IF(G53 = 0, 0, I53 - F53)</f>
+        <v>-34465.498748659273</v>
+      </c>
+      <c r="K53" s="34">
+        <f>IFERROR((E53 - D53) / D53, 0)</f>
         <v>-6.2567036110117977E-2</v>
       </c>
-      <c r="J53" s="13">
-        <f t="shared" si="2"/>
-        <v>65534.501251340727</v>
-      </c>
-      <c r="K53" s="14">
-        <f t="shared" si="3"/>
+      <c r="L53" s="18">
+        <f t="shared" si="1"/>
         <v>93743.296388988208</v>
       </c>
-      <c r="L53" s="13">
-        <f t="shared" si="4"/>
-        <v>-34465.498748659273</v>
-      </c>
-      <c r="M53" s="14">
-        <f t="shared" si="5"/>
+      <c r="M53" s="18">
+        <f>IF(G53 = 0, 0, L53 - F53)</f>
         <v>-6256.7036110117915</v>
       </c>
     </row>
@@ -9424,32 +9530,32 @@
       <c r="F54" s="13">
         <v>100000</v>
       </c>
-      <c r="G54" s="20">
-        <f t="shared" si="6"/>
+      <c r="G54" s="32">
+        <f t="shared" si="2"/>
         <v>101.11223458038423</v>
       </c>
-      <c r="H54" s="23">
+      <c r="H54" s="34">
         <f t="shared" si="0"/>
         <v>0.32457027300303337</v>
       </c>
-      <c r="I54" s="22">
-        <f t="shared" si="1"/>
+      <c r="I54" s="18">
+        <f>G54 * C54</f>
+        <v>132457.02730030334</v>
+      </c>
+      <c r="J54" s="18">
+        <f>IF(G54 = 0, 0, I54 - F54)</f>
+        <v>32457.027300303336</v>
+      </c>
+      <c r="K54" s="34">
+        <f>IFERROR((E54 - D54) / D54, 0)</f>
         <v>-6.0667340748230538E-3</v>
       </c>
-      <c r="J54" s="13">
-        <f t="shared" si="2"/>
-        <v>132457.02730030334</v>
-      </c>
-      <c r="K54" s="14">
-        <f t="shared" si="3"/>
+      <c r="L54" s="18">
+        <f t="shared" si="1"/>
         <v>99393.326592517697</v>
       </c>
-      <c r="L54" s="13">
-        <f t="shared" si="4"/>
-        <v>32457.027300303336</v>
-      </c>
-      <c r="M54" s="14">
-        <f t="shared" si="5"/>
+      <c r="M54" s="18">
+        <f>IF(G54 = 0, 0, L54 - F54)</f>
         <v>-606.67340748230345</v>
       </c>
     </row>
@@ -9472,32 +9578,32 @@
       <c r="F55" s="13">
         <v>100000</v>
       </c>
-      <c r="G55" s="20">
-        <f t="shared" si="6"/>
+      <c r="G55" s="32">
+        <f t="shared" si="2"/>
         <v>598.80239520958082</v>
       </c>
-      <c r="H55" s="23">
+      <c r="H55" s="34">
         <f t="shared" si="0"/>
         <v>0.83832335329341312</v>
       </c>
-      <c r="I55" s="22">
-        <f t="shared" si="1"/>
+      <c r="I55" s="18">
+        <f>G55 * C55</f>
+        <v>183832.33532934132</v>
+      </c>
+      <c r="J55" s="18">
+        <f>IF(G55 = 0, 0, I55 - F55)</f>
+        <v>83832.335329341324</v>
+      </c>
+      <c r="K55" s="34">
+        <f>IFERROR((E55 - D55) / D55, 0)</f>
         <v>1.1976047904191617E-2</v>
       </c>
-      <c r="J55" s="13">
-        <f t="shared" si="2"/>
-        <v>183832.33532934132</v>
-      </c>
-      <c r="K55" s="14">
-        <f t="shared" si="3"/>
+      <c r="L55" s="18">
+        <f t="shared" si="1"/>
         <v>101197.60479041917</v>
       </c>
-      <c r="L55" s="13">
-        <f t="shared" si="4"/>
-        <v>83832.335329341324</v>
-      </c>
-      <c r="M55" s="14">
-        <f t="shared" si="5"/>
+      <c r="M55" s="18">
+        <f>IF(G55 = 0, 0, L55 - F55)</f>
         <v>1197.6047904191655</v>
       </c>
     </row>
@@ -9520,32 +9626,32 @@
       <c r="F56" s="13">
         <v>100000</v>
       </c>
-      <c r="G56" s="20">
-        <f t="shared" si="6"/>
+      <c r="G56" s="32">
+        <f t="shared" si="2"/>
         <v>456.62100456621005</v>
       </c>
-      <c r="H56" s="23">
+      <c r="H56" s="34">
         <f t="shared" si="0"/>
         <v>3.5342465753424657</v>
       </c>
-      <c r="I56" s="22">
-        <f t="shared" si="1"/>
+      <c r="I56" s="18">
+        <f>G56 * C56</f>
+        <v>453424.65753424657</v>
+      </c>
+      <c r="J56" s="18">
+        <f>IF(G56 = 0, 0, I56 - F56)</f>
+        <v>353424.65753424657</v>
+      </c>
+      <c r="K56" s="34">
+        <f>IFERROR((E56 - D56) / D56, 0)</f>
         <v>-9.1324200913242004E-3</v>
       </c>
-      <c r="J56" s="13">
-        <f t="shared" si="2"/>
-        <v>453424.65753424657</v>
-      </c>
-      <c r="K56" s="14">
-        <f t="shared" si="3"/>
+      <c r="L56" s="18">
+        <f t="shared" si="1"/>
         <v>99086.757990867583</v>
       </c>
-      <c r="L56" s="13">
-        <f t="shared" si="4"/>
-        <v>353424.65753424657</v>
-      </c>
-      <c r="M56" s="14">
-        <f t="shared" si="5"/>
+      <c r="M56" s="18">
+        <f>IF(G56 = 0, 0, L56 - F56)</f>
         <v>-913.24200913241657</v>
       </c>
     </row>
@@ -9568,32 +9674,32 @@
       <c r="F57" s="13">
         <v>100000</v>
       </c>
-      <c r="G57" s="20">
-        <f t="shared" si="6"/>
+      <c r="G57" s="32">
+        <f t="shared" si="2"/>
         <v>58.997050147492622</v>
       </c>
-      <c r="H57" s="23">
+      <c r="H57" s="34">
         <f t="shared" si="0"/>
         <v>4.71976401179941E-2</v>
       </c>
-      <c r="I57" s="22">
-        <f t="shared" si="1"/>
+      <c r="I57" s="18">
+        <f>G57 * C57</f>
+        <v>104719.7640117994</v>
+      </c>
+      <c r="J57" s="18">
+        <f>IF(G57 = 0, 0, I57 - F57)</f>
+        <v>4719.7640117994015</v>
+      </c>
+      <c r="K57" s="34">
+        <f>IFERROR((E57 - D57) / D57, 0)</f>
         <v>-9.1445427728613568E-2</v>
       </c>
-      <c r="J57" s="13">
-        <f t="shared" si="2"/>
-        <v>104719.7640117994</v>
-      </c>
-      <c r="K57" s="14">
-        <f t="shared" si="3"/>
+      <c r="L57" s="18">
+        <f t="shared" si="1"/>
         <v>90855.457227138642</v>
       </c>
-      <c r="L57" s="13">
-        <f t="shared" si="4"/>
-        <v>4719.7640117994015</v>
-      </c>
-      <c r="M57" s="14">
-        <f t="shared" si="5"/>
+      <c r="M57" s="18">
+        <f>IF(G57 = 0, 0, L57 - F57)</f>
         <v>-9144.5427728613577</v>
       </c>
     </row>
@@ -9616,32 +9722,32 @@
       <c r="F58" s="13">
         <v>100000</v>
       </c>
-      <c r="G58" s="20">
-        <f t="shared" si="6"/>
+      <c r="G58" s="32">
+        <f t="shared" si="2"/>
         <v>1440.9221902017289</v>
       </c>
-      <c r="H58" s="23">
+      <c r="H58" s="34">
         <f t="shared" si="0"/>
         <v>8.3573487031700242E-2</v>
       </c>
-      <c r="I58" s="22">
-        <f t="shared" si="1"/>
+      <c r="I58" s="18">
+        <f>G58 * C58</f>
+        <v>108357.34870317002</v>
+      </c>
+      <c r="J58" s="18">
+        <f>IF(G58 = 0, 0, I58 - F58)</f>
+        <v>8357.3487031700206</v>
+      </c>
+      <c r="K58" s="34">
+        <f>IFERROR((E58 - D58) / D58, 0)</f>
         <v>0.44092219020172901</v>
       </c>
-      <c r="J58" s="13">
-        <f t="shared" si="2"/>
-        <v>108357.34870317002</v>
-      </c>
-      <c r="K58" s="14">
-        <f t="shared" si="3"/>
+      <c r="L58" s="18">
+        <f t="shared" si="1"/>
         <v>144092.2190201729</v>
       </c>
-      <c r="L58" s="13">
-        <f t="shared" si="4"/>
-        <v>8357.3487031700206</v>
-      </c>
-      <c r="M58" s="14">
-        <f t="shared" si="5"/>
+      <c r="M58" s="18">
+        <f>IF(G58 = 0, 0, L58 - F58)</f>
         <v>44092.219020172895</v>
       </c>
     </row>
@@ -9664,32 +9770,32 @@
       <c r="F59" s="13">
         <v>100000</v>
       </c>
-      <c r="G59" s="20">
-        <f t="shared" si="6"/>
+      <c r="G59" s="32">
+        <f t="shared" si="2"/>
         <v>12.070006035003017</v>
       </c>
-      <c r="H59" s="23">
+      <c r="H59" s="34">
         <f t="shared" si="0"/>
         <v>-0.7435123717561859</v>
       </c>
-      <c r="I59" s="22">
-        <f t="shared" si="1"/>
+      <c r="I59" s="18">
+        <f>G59 * C59</f>
+        <v>25648.762824381411</v>
+      </c>
+      <c r="J59" s="18">
+        <f>IF(G59 = 0, 0, I59 - F59)</f>
+        <v>-74351.237175618589</v>
+      </c>
+      <c r="K59" s="34">
+        <f>IFERROR((E59 - D59) / D59, 0)</f>
         <v>-6.2160531080265542E-2</v>
       </c>
-      <c r="J59" s="13">
-        <f t="shared" si="2"/>
-        <v>25648.762824381411</v>
-      </c>
-      <c r="K59" s="14">
-        <f t="shared" si="3"/>
+      <c r="L59" s="18">
+        <f t="shared" si="1"/>
         <v>93783.946891973435</v>
       </c>
-      <c r="L59" s="13">
-        <f t="shared" si="4"/>
-        <v>-74351.237175618589</v>
-      </c>
-      <c r="M59" s="14">
-        <f t="shared" si="5"/>
+      <c r="M59" s="18">
+        <f>IF(G59 = 0, 0, L59 - F59)</f>
         <v>-6216.0531080265646</v>
       </c>
     </row>
@@ -9712,32 +9818,32 @@
       <c r="F60" s="13">
         <v>100000</v>
       </c>
-      <c r="G60" s="20">
-        <f t="shared" si="6"/>
+      <c r="G60" s="32">
+        <f t="shared" si="2"/>
         <v>1053.7407797681769</v>
       </c>
-      <c r="H60" s="23">
+      <c r="H60" s="34">
         <f t="shared" si="0"/>
         <v>-0.47839831401475241</v>
       </c>
-      <c r="I60" s="22">
-        <f t="shared" si="1"/>
+      <c r="I60" s="18">
+        <f>G60 * C60</f>
+        <v>52160.16859852476</v>
+      </c>
+      <c r="J60" s="18">
+        <f>IF(G60 = 0, 0, I60 - F60)</f>
+        <v>-47839.83140147524</v>
+      </c>
+      <c r="K60" s="34">
+        <f>IFERROR((E60 - D60) / D60, 0)</f>
         <v>1.0537407797681171E-3</v>
       </c>
-      <c r="J60" s="13">
-        <f t="shared" si="2"/>
-        <v>52160.16859852476</v>
-      </c>
-      <c r="K60" s="14">
-        <f t="shared" si="3"/>
+      <c r="L60" s="18">
+        <f t="shared" si="1"/>
         <v>100105.37407797681</v>
       </c>
-      <c r="L60" s="13">
-        <f t="shared" si="4"/>
-        <v>-47839.83140147524</v>
-      </c>
-      <c r="M60" s="14">
-        <f t="shared" si="5"/>
+      <c r="M60" s="18">
+        <f>IF(G60 = 0, 0, L60 - F60)</f>
         <v>105.37407797681226</v>
       </c>
     </row>
@@ -9756,32 +9862,32 @@
       <c r="F61" s="13">
         <v>100000</v>
       </c>
-      <c r="G61" s="20">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="H61" s="23">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I61" s="22">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J61" s="13">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K61" s="14">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L61" s="13">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="M61" s="14">
-        <f t="shared" si="5"/>
+      <c r="G61" s="32">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H61" s="34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I61" s="18">
+        <f>G61 * C61</f>
+        <v>0</v>
+      </c>
+      <c r="J61" s="18">
+        <f>IF(G61 = 0, 0, I61 - F61)</f>
+        <v>0</v>
+      </c>
+      <c r="K61" s="34">
+        <f>IFERROR((E61 - D61) / D61, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="L61" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M61" s="18">
+        <f>IF(G61 = 0, 0, L61 - F61)</f>
         <v>0</v>
       </c>
     </row>
@@ -9804,32 +9910,32 @@
       <c r="F62" s="13">
         <v>100000</v>
       </c>
-      <c r="G62" s="20">
-        <f t="shared" si="6"/>
+      <c r="G62" s="32">
+        <f t="shared" si="2"/>
         <v>36.231884057971016</v>
       </c>
-      <c r="H62" s="23">
+      <c r="H62" s="34">
         <f t="shared" si="0"/>
         <v>-0.77391304347826084</v>
       </c>
-      <c r="I62" s="22">
-        <f t="shared" si="1"/>
+      <c r="I62" s="18">
+        <f>G62 * C62</f>
+        <v>22608.695652173912</v>
+      </c>
+      <c r="J62" s="18">
+        <f>IF(G62 = 0, 0, I62 - F62)</f>
+        <v>-77391.304347826081</v>
+      </c>
+      <c r="K62" s="34">
+        <f>IFERROR((E62 - D62) / D62, 0)</f>
         <v>0.1105072463768116</v>
       </c>
-      <c r="J62" s="13">
-        <f t="shared" si="2"/>
-        <v>22608.695652173912</v>
-      </c>
-      <c r="K62" s="14">
-        <f t="shared" si="3"/>
+      <c r="L62" s="18">
+        <f t="shared" si="1"/>
         <v>111050.72463768117</v>
       </c>
-      <c r="L62" s="13">
-        <f t="shared" si="4"/>
-        <v>-77391.304347826081</v>
-      </c>
-      <c r="M62" s="14">
-        <f t="shared" si="5"/>
+      <c r="M62" s="18">
+        <f>IF(G62 = 0, 0, L62 - F62)</f>
         <v>11050.724637681167</v>
       </c>
     </row>
@@ -9852,32 +9958,32 @@
       <c r="F63" s="13">
         <v>100000</v>
       </c>
-      <c r="G63" s="20">
-        <f t="shared" si="6"/>
+      <c r="G63" s="32">
+        <f t="shared" si="2"/>
         <v>1164.1443538998835</v>
       </c>
-      <c r="H63" s="23">
+      <c r="H63" s="34">
         <f t="shared" si="0"/>
         <v>-0.2665890570430734</v>
       </c>
-      <c r="I63" s="22">
-        <f t="shared" si="1"/>
+      <c r="I63" s="18">
+        <f>G63 * C63</f>
+        <v>73341.094295692659</v>
+      </c>
+      <c r="J63" s="18">
+        <f>IF(G63 = 0, 0, I63 - F63)</f>
+        <v>-26658.905704307341</v>
+      </c>
+      <c r="K63" s="34">
+        <f>IFERROR((E63 - D63) / D63, 0)</f>
         <v>2.3282887077996348E-3</v>
       </c>
-      <c r="J63" s="13">
-        <f t="shared" si="2"/>
-        <v>73341.094295692659</v>
-      </c>
-      <c r="K63" s="14">
-        <f t="shared" si="3"/>
+      <c r="L63" s="18">
+        <f t="shared" si="1"/>
         <v>100232.82887077997</v>
       </c>
-      <c r="L63" s="13">
-        <f t="shared" si="4"/>
-        <v>-26658.905704307341</v>
-      </c>
-      <c r="M63" s="14">
-        <f t="shared" si="5"/>
+      <c r="M63" s="18">
+        <f>IF(G63 = 0, 0, L63 - F63)</f>
         <v>232.82887077996565</v>
       </c>
     </row>
@@ -9900,32 +10006,32 @@
       <c r="F64" s="13">
         <v>100000</v>
       </c>
-      <c r="G64" s="20">
-        <f t="shared" si="6"/>
+      <c r="G64" s="32">
+        <f t="shared" si="2"/>
         <v>105.48523206751055</v>
       </c>
-      <c r="H64" s="23">
+      <c r="H64" s="34">
         <f t="shared" si="0"/>
         <v>2.4261603375527425E-2</v>
       </c>
-      <c r="I64" s="22">
-        <f t="shared" si="1"/>
+      <c r="I64" s="18">
+        <f>G64 * C64</f>
+        <v>102426.16033755275</v>
+      </c>
+      <c r="J64" s="18">
+        <f>IF(G64 = 0, 0, I64 - F64)</f>
+        <v>2426.1603375527484</v>
+      </c>
+      <c r="K64" s="34">
+        <f>IFERROR((E64 - D64) / D64, 0)</f>
         <v>-1.1603375527426161E-2</v>
       </c>
-      <c r="J64" s="13">
-        <f t="shared" si="2"/>
-        <v>102426.16033755275</v>
-      </c>
-      <c r="K64" s="14">
-        <f t="shared" si="3"/>
+      <c r="L64" s="18">
+        <f t="shared" si="1"/>
         <v>98839.662447257389</v>
       </c>
-      <c r="L64" s="13">
-        <f t="shared" si="4"/>
-        <v>2426.1603375527484</v>
-      </c>
-      <c r="M64" s="14">
-        <f t="shared" si="5"/>
+      <c r="M64" s="18">
+        <f>IF(G64 = 0, 0, L64 - F64)</f>
         <v>-1160.3375527426106</v>
       </c>
     </row>
@@ -9948,32 +10054,32 @@
       <c r="F65" s="13">
         <v>100000</v>
       </c>
-      <c r="G65" s="20">
-        <f t="shared" si="6"/>
+      <c r="G65" s="32">
+        <f t="shared" si="2"/>
         <v>7575.757575757576</v>
       </c>
-      <c r="H65" s="23">
+      <c r="H65" s="34">
         <f t="shared" si="0"/>
         <v>-0.25075757575757568</v>
       </c>
-      <c r="I65" s="22">
-        <f t="shared" si="1"/>
+      <c r="I65" s="18">
+        <f>G65 * C65</f>
+        <v>74924.242424242431</v>
+      </c>
+      <c r="J65" s="18">
+        <f>IF(G65 = 0, 0, I65 - F65)</f>
+        <v>-25075.757575757569</v>
+      </c>
+      <c r="K65" s="34">
+        <f>IFERROR((E65 - D65) / D65, 0)</f>
         <v>7.5757575757576835E-3</v>
       </c>
-      <c r="J65" s="13">
-        <f t="shared" si="2"/>
-        <v>74924.242424242431</v>
-      </c>
-      <c r="K65" s="14">
-        <f t="shared" si="3"/>
+      <c r="L65" s="18">
+        <f t="shared" si="1"/>
         <v>100757.57575757576</v>
       </c>
-      <c r="L65" s="13">
-        <f t="shared" si="4"/>
-        <v>-25075.757575757569</v>
-      </c>
-      <c r="M65" s="14">
-        <f t="shared" si="5"/>
+      <c r="M65" s="18">
+        <f>IF(G65 = 0, 0, L65 - F65)</f>
         <v>757.57575757575978</v>
       </c>
     </row>
@@ -9996,32 +10102,32 @@
       <c r="F66" s="13">
         <v>100000</v>
       </c>
-      <c r="G66" s="20">
-        <f t="shared" si="6"/>
+      <c r="G66" s="32">
+        <f t="shared" si="2"/>
         <v>78.125</v>
       </c>
-      <c r="H66" s="23">
+      <c r="H66" s="34">
         <f t="shared" si="0"/>
         <v>-0.171875</v>
       </c>
-      <c r="I66" s="22">
-        <f t="shared" si="1"/>
+      <c r="I66" s="18">
+        <f>G66 * C66</f>
+        <v>82812.5</v>
+      </c>
+      <c r="J66" s="18">
+        <f>IF(G66 = 0, 0, I66 - F66)</f>
+        <v>-17187.5</v>
+      </c>
+      <c r="K66" s="34">
+        <f>IFERROR((E66 - D66) / D66, 0)</f>
         <v>-3.90625E-2</v>
       </c>
-      <c r="J66" s="13">
-        <f t="shared" si="2"/>
-        <v>82812.5</v>
-      </c>
-      <c r="K66" s="14">
-        <f t="shared" si="3"/>
+      <c r="L66" s="18">
+        <f t="shared" si="1"/>
         <v>96093.75</v>
       </c>
-      <c r="L66" s="13">
-        <f t="shared" si="4"/>
-        <v>-17187.5</v>
-      </c>
-      <c r="M66" s="14">
-        <f t="shared" si="5"/>
+      <c r="M66" s="18">
+        <f>IF(G66 = 0, 0, L66 - F66)</f>
         <v>-3906.25</v>
       </c>
     </row>
@@ -10044,32 +10150,32 @@
       <c r="F67" s="13">
         <v>100000</v>
       </c>
-      <c r="G67" s="20">
-        <f t="shared" si="6"/>
+      <c r="G67" s="32">
+        <f t="shared" si="2"/>
         <v>4048.5829959514172</v>
       </c>
-      <c r="H67" s="23">
-        <f t="shared" ref="H67:H114" si="7">IFERROR((C67 - D67) / D67, 0)</f>
+      <c r="H67" s="34">
+        <f t="shared" ref="H67:H114" si="3">IFERROR((C67 - D67) / D67, 0)</f>
         <v>-0.20242914979757085</v>
       </c>
-      <c r="I67" s="22">
-        <f t="shared" ref="I67:I114" si="8">IFERROR((E67 - D67) / D67, 0)</f>
+      <c r="I67" s="18">
+        <f>G67 * C67</f>
+        <v>79757.085020242914</v>
+      </c>
+      <c r="J67" s="18">
+        <f>IF(G67 = 0, 0, I67 - F67)</f>
+        <v>-20242.914979757086</v>
+      </c>
+      <c r="K67" s="34">
+        <f>IFERROR((E67 - D67) / D67, 0)</f>
         <v>4.048582995951417E-2</v>
       </c>
-      <c r="J67" s="13">
-        <f t="shared" ref="J67:J114" si="9">G67 * C67</f>
-        <v>79757.085020242914</v>
-      </c>
-      <c r="K67" s="14">
-        <f t="shared" ref="K67:K114" si="10">G67 * E67</f>
+      <c r="L67" s="18">
+        <f t="shared" ref="L67:L114" si="4">G67 * E67</f>
         <v>104048.58299595142</v>
       </c>
-      <c r="L67" s="13">
-        <f t="shared" ref="L67:L114" si="11">IF(G67 = 0, 0, J67 - F67)</f>
-        <v>-20242.914979757086</v>
-      </c>
-      <c r="M67" s="14">
-        <f t="shared" ref="M67:M114" si="12">IF(G67 = 0, 0, K67 - F67)</f>
+      <c r="M67" s="18">
+        <f>IF(G67 = 0, 0, L67 - F67)</f>
         <v>4048.5829959514231</v>
       </c>
     </row>
@@ -10092,32 +10198,32 @@
       <c r="F68" s="13">
         <v>100000</v>
       </c>
-      <c r="G68" s="20">
-        <f t="shared" ref="G68:G114" si="13">IFERROR(F68 / D68,0)</f>
+      <c r="G68" s="32">
+        <f t="shared" ref="G68:G114" si="5">IFERROR(F68 / D68,0)</f>
         <v>18181.81818181818</v>
       </c>
-      <c r="H68" s="23">
-        <f t="shared" si="7"/>
+      <c r="H68" s="34">
+        <f t="shared" si="3"/>
         <v>-0.99958181818181824</v>
       </c>
-      <c r="I68" s="22">
-        <f t="shared" si="8"/>
+      <c r="I68" s="18">
+        <f>G68 * C68</f>
+        <v>41.818181818181813</v>
+      </c>
+      <c r="J68" s="18">
+        <f>IF(G68 = 0, 0, I68 - F68)</f>
+        <v>-99958.181818181823</v>
+      </c>
+      <c r="K68" s="34">
+        <f>IFERROR((E68 - D68) / D68, 0)</f>
         <v>-5.6363636363636289E-2</v>
       </c>
-      <c r="J68" s="13">
-        <f t="shared" si="9"/>
-        <v>41.818181818181813</v>
-      </c>
-      <c r="K68" s="14">
-        <f t="shared" si="10"/>
+      <c r="L68" s="18">
+        <f t="shared" si="4"/>
         <v>94363.636363636368</v>
       </c>
-      <c r="L68" s="13">
-        <f t="shared" si="11"/>
-        <v>-99958.181818181823</v>
-      </c>
-      <c r="M68" s="14">
-        <f t="shared" si="12"/>
+      <c r="M68" s="18">
+        <f>IF(G68 = 0, 0, L68 - F68)</f>
         <v>-5636.3636363636324</v>
       </c>
     </row>
@@ -10140,32 +10246,32 @@
       <c r="F69" s="13">
         <v>100000</v>
       </c>
-      <c r="G69" s="20">
-        <f t="shared" si="13"/>
+      <c r="G69" s="32">
+        <f t="shared" si="5"/>
         <v>132.10039630118891</v>
       </c>
-      <c r="H69" s="23">
-        <f t="shared" si="7"/>
+      <c r="H69" s="34">
+        <f t="shared" si="3"/>
         <v>2.9431968295904887</v>
       </c>
-      <c r="I69" s="22">
-        <f t="shared" si="8"/>
+      <c r="I69" s="18">
+        <f>G69 * C69</f>
+        <v>394319.68295904889</v>
+      </c>
+      <c r="J69" s="18">
+        <f>IF(G69 = 0, 0, I69 - F69)</f>
+        <v>294319.68295904889</v>
+      </c>
+      <c r="K69" s="34">
+        <f>IFERROR((E69 - D69) / D69, 0)</f>
         <v>9.247027741083224E-3</v>
       </c>
-      <c r="J69" s="13">
-        <f t="shared" si="9"/>
-        <v>394319.68295904889</v>
-      </c>
-      <c r="K69" s="14">
-        <f t="shared" si="10"/>
+      <c r="L69" s="18">
+        <f t="shared" si="4"/>
         <v>100924.70277410833</v>
       </c>
-      <c r="L69" s="13">
-        <f t="shared" si="11"/>
-        <v>294319.68295904889</v>
-      </c>
-      <c r="M69" s="14">
-        <f t="shared" si="12"/>
+      <c r="M69" s="18">
+        <f>IF(G69 = 0, 0, L69 - F69)</f>
         <v>924.70277410832932</v>
       </c>
     </row>
@@ -10188,32 +10294,32 @@
       <c r="F70" s="13">
         <v>100000</v>
       </c>
-      <c r="G70" s="20">
-        <f t="shared" si="13"/>
+      <c r="G70" s="32">
+        <f t="shared" si="5"/>
         <v>546.44808743169403</v>
       </c>
-      <c r="H70" s="23">
-        <f t="shared" si="7"/>
+      <c r="H70" s="34">
+        <f t="shared" si="3"/>
         <v>0.47540983606557374</v>
       </c>
-      <c r="I70" s="22">
-        <f t="shared" si="8"/>
+      <c r="I70" s="18">
+        <f>G70 * C70</f>
+        <v>147540.98360655739</v>
+      </c>
+      <c r="J70" s="18">
+        <f>IF(G70 = 0, 0, I70 - F70)</f>
+        <v>47540.983606557391</v>
+      </c>
+      <c r="K70" s="34">
+        <f>IFERROR((E70 - D70) / D70, 0)</f>
         <v>-7.1038251366120214E-2</v>
       </c>
-      <c r="J70" s="13">
-        <f t="shared" si="9"/>
-        <v>147540.98360655739</v>
-      </c>
-      <c r="K70" s="14">
-        <f t="shared" si="10"/>
+      <c r="L70" s="18">
+        <f t="shared" si="4"/>
         <v>92896.174863387991</v>
       </c>
-      <c r="L70" s="13">
-        <f t="shared" si="11"/>
-        <v>47540.983606557391</v>
-      </c>
-      <c r="M70" s="14">
-        <f t="shared" si="12"/>
+      <c r="M70" s="18">
+        <f>IF(G70 = 0, 0, L70 - F70)</f>
         <v>-7103.8251366120094</v>
       </c>
     </row>
@@ -10236,32 +10342,32 @@
       <c r="F71" s="13">
         <v>100000</v>
       </c>
-      <c r="G71" s="20">
-        <f t="shared" si="13"/>
+      <c r="G71" s="32">
+        <f t="shared" si="5"/>
         <v>7246.3768115942021</v>
       </c>
-      <c r="H71" s="23">
-        <f t="shared" si="7"/>
+      <c r="H71" s="34">
+        <f t="shared" si="3"/>
         <v>-0.30362318840579716</v>
       </c>
-      <c r="I71" s="22">
-        <f t="shared" si="8"/>
+      <c r="I71" s="18">
+        <f>G71 * C71</f>
+        <v>69637.681159420274</v>
+      </c>
+      <c r="J71" s="18">
+        <f>IF(G71 = 0, 0, I71 - F71)</f>
+        <v>-30362.318840579726</v>
+      </c>
+      <c r="K71" s="34">
+        <f>IFERROR((E71 - D71) / D71, 0)</f>
         <v>7.246376811594177E-3</v>
       </c>
-      <c r="J71" s="13">
-        <f t="shared" si="9"/>
-        <v>69637.681159420274</v>
-      </c>
-      <c r="K71" s="14">
-        <f t="shared" si="10"/>
+      <c r="L71" s="18">
+        <f t="shared" si="4"/>
         <v>100724.63768115941</v>
       </c>
-      <c r="L71" s="13">
-        <f t="shared" si="11"/>
-        <v>-30362.318840579726</v>
-      </c>
-      <c r="M71" s="14">
-        <f t="shared" si="12"/>
+      <c r="M71" s="18">
+        <f>IF(G71 = 0, 0, L71 - F71)</f>
         <v>724.63768115940911</v>
       </c>
     </row>
@@ -10284,32 +10390,32 @@
       <c r="F72" s="13">
         <v>100000</v>
       </c>
-      <c r="G72" s="20">
-        <f t="shared" si="13"/>
+      <c r="G72" s="32">
+        <f t="shared" si="5"/>
         <v>86.206896551724142</v>
       </c>
-      <c r="H72" s="23">
-        <f t="shared" si="7"/>
+      <c r="H72" s="34">
+        <f t="shared" si="3"/>
         <v>-0.13793103448275862</v>
       </c>
-      <c r="I72" s="22">
-        <f t="shared" si="8"/>
+      <c r="I72" s="18">
+        <f>G72 * C72</f>
+        <v>86206.896551724145</v>
+      </c>
+      <c r="J72" s="18">
+        <f>IF(G72 = 0, 0, I72 - F72)</f>
+        <v>-13793.103448275855</v>
+      </c>
+      <c r="K72" s="34">
+        <f>IFERROR((E72 - D72) / D72, 0)</f>
         <v>8.6206896551724137E-3</v>
       </c>
-      <c r="J72" s="13">
-        <f t="shared" si="9"/>
-        <v>86206.896551724145</v>
-      </c>
-      <c r="K72" s="14">
-        <f t="shared" si="10"/>
+      <c r="L72" s="18">
+        <f t="shared" si="4"/>
         <v>100862.06896551725</v>
       </c>
-      <c r="L72" s="13">
-        <f t="shared" si="11"/>
-        <v>-13793.103448275855</v>
-      </c>
-      <c r="M72" s="14">
-        <f t="shared" si="12"/>
+      <c r="M72" s="18">
+        <f>IF(G72 = 0, 0, L72 - F72)</f>
         <v>862.0689655172464</v>
       </c>
     </row>
@@ -10332,32 +10438,32 @@
       <c r="F73" s="13">
         <v>100000</v>
       </c>
-      <c r="G73" s="20">
-        <f t="shared" si="13"/>
+      <c r="G73" s="32">
+        <f t="shared" si="5"/>
         <v>398.40637450199205</v>
       </c>
-      <c r="H73" s="23">
-        <f t="shared" si="7"/>
+      <c r="H73" s="34">
+        <f t="shared" si="3"/>
         <v>-0.53784860557768921</v>
       </c>
-      <c r="I73" s="22">
-        <f t="shared" si="8"/>
+      <c r="I73" s="18">
+        <f>G73 * C73</f>
+        <v>46215.139442231077</v>
+      </c>
+      <c r="J73" s="18">
+        <f>IF(G73 = 0, 0, I73 - F73)</f>
+        <v>-53784.860557768923</v>
+      </c>
+      <c r="K73" s="34">
+        <f>IFERROR((E73 - D73) / D73, 0)</f>
         <v>-0.2151394422310757</v>
       </c>
-      <c r="J73" s="13">
-        <f t="shared" si="9"/>
-        <v>46215.139442231077</v>
-      </c>
-      <c r="K73" s="14">
-        <f t="shared" si="10"/>
+      <c r="L73" s="18">
+        <f t="shared" si="4"/>
         <v>78486.055776892434</v>
       </c>
-      <c r="L73" s="13">
-        <f t="shared" si="11"/>
-        <v>-53784.860557768923</v>
-      </c>
-      <c r="M73" s="14">
-        <f t="shared" si="12"/>
+      <c r="M73" s="18">
+        <f>IF(G73 = 0, 0, L73 - F73)</f>
         <v>-21513.944223107566</v>
       </c>
     </row>
@@ -10380,32 +10486,32 @@
       <c r="F74" s="13">
         <v>100000</v>
       </c>
-      <c r="G74" s="20">
-        <f t="shared" si="13"/>
+      <c r="G74" s="32">
+        <f t="shared" si="5"/>
         <v>41.152263374485599</v>
       </c>
-      <c r="H74" s="23">
-        <f t="shared" si="7"/>
+      <c r="H74" s="34">
+        <f t="shared" si="3"/>
         <v>-0.52057613168724282</v>
       </c>
-      <c r="I74" s="22">
-        <f t="shared" si="8"/>
+      <c r="I74" s="18">
+        <f>G74 * C74</f>
+        <v>47942.386831275726</v>
+      </c>
+      <c r="J74" s="18">
+        <f>IF(G74 = 0, 0, I74 - F74)</f>
+        <v>-52057.613168724274</v>
+      </c>
+      <c r="K74" s="34">
+        <f>IFERROR((E74 - D74) / D74, 0)</f>
         <v>1.2345679012345678E-2</v>
       </c>
-      <c r="J74" s="13">
-        <f t="shared" si="9"/>
-        <v>47942.386831275726</v>
-      </c>
-      <c r="K74" s="14">
-        <f t="shared" si="10"/>
+      <c r="L74" s="18">
+        <f t="shared" si="4"/>
         <v>101234.56790123458</v>
       </c>
-      <c r="L74" s="13">
-        <f t="shared" si="11"/>
-        <v>-52057.613168724274</v>
-      </c>
-      <c r="M74" s="14">
-        <f t="shared" si="12"/>
+      <c r="M74" s="18">
+        <f>IF(G74 = 0, 0, L74 - F74)</f>
         <v>1234.567901234579</v>
       </c>
     </row>
@@ -10428,32 +10534,32 @@
       <c r="F75" s="13">
         <v>100000</v>
       </c>
-      <c r="G75" s="20">
-        <f t="shared" si="13"/>
+      <c r="G75" s="32">
+        <f t="shared" si="5"/>
         <v>1303.7809647979138</v>
       </c>
-      <c r="H75" s="23">
-        <f t="shared" si="7"/>
+      <c r="H75" s="34">
+        <f t="shared" si="3"/>
         <v>-0.31681877444589313</v>
       </c>
-      <c r="I75" s="22">
-        <f t="shared" si="8"/>
+      <c r="I75" s="18">
+        <f>G75 * C75</f>
+        <v>68318.122555410679</v>
+      </c>
+      <c r="J75" s="18">
+        <f>IF(G75 = 0, 0, I75 - F75)</f>
+        <v>-31681.877444589321</v>
+      </c>
+      <c r="K75" s="34">
+        <f>IFERROR((E75 - D75) / D75, 0)</f>
         <v>7.1707953063885263E-2</v>
       </c>
-      <c r="J75" s="13">
-        <f t="shared" si="9"/>
-        <v>68318.122555410679</v>
-      </c>
-      <c r="K75" s="14">
-        <f t="shared" si="10"/>
+      <c r="L75" s="18">
+        <f t="shared" si="4"/>
         <v>107170.79530638852</v>
       </c>
-      <c r="L75" s="13">
-        <f t="shared" si="11"/>
-        <v>-31681.877444589321</v>
-      </c>
-      <c r="M75" s="14">
-        <f t="shared" si="12"/>
+      <c r="M75" s="18">
+        <f>IF(G75 = 0, 0, L75 - F75)</f>
         <v>7170.7953063885216</v>
       </c>
     </row>
@@ -10476,32 +10582,32 @@
       <c r="F76" s="13">
         <v>100000</v>
       </c>
-      <c r="G76" s="20">
-        <f t="shared" si="13"/>
+      <c r="G76" s="32">
+        <f t="shared" si="5"/>
         <v>1333.3333333333333</v>
       </c>
-      <c r="H76" s="23">
-        <f t="shared" si="7"/>
+      <c r="H76" s="34">
+        <f t="shared" si="3"/>
         <v>0.58666666666666667</v>
       </c>
-      <c r="I76" s="22">
-        <f t="shared" si="8"/>
+      <c r="I76" s="18">
+        <f>G76 * C76</f>
+        <v>158666.66666666666</v>
+      </c>
+      <c r="J76" s="18">
+        <f>IF(G76 = 0, 0, I76 - F76)</f>
+        <v>58666.666666666657</v>
+      </c>
+      <c r="K76" s="34">
+        <f>IFERROR((E76 - D76) / D76, 0)</f>
         <v>-0.42466666666666669</v>
       </c>
-      <c r="J76" s="13">
-        <f t="shared" si="9"/>
-        <v>158666.66666666666</v>
-      </c>
-      <c r="K76" s="14">
-        <f t="shared" si="10"/>
+      <c r="L76" s="18">
+        <f t="shared" si="4"/>
         <v>57533.333333333328</v>
       </c>
-      <c r="L76" s="13">
-        <f t="shared" si="11"/>
-        <v>58666.666666666657</v>
-      </c>
-      <c r="M76" s="14">
-        <f t="shared" si="12"/>
+      <c r="M76" s="18">
+        <f>IF(G76 = 0, 0, L76 - F76)</f>
         <v>-42466.666666666672</v>
       </c>
     </row>
@@ -10524,32 +10630,32 @@
       <c r="F77" s="13">
         <v>100000</v>
       </c>
-      <c r="G77" s="20">
-        <f t="shared" si="13"/>
+      <c r="G77" s="32">
+        <f t="shared" si="5"/>
         <v>292.39766081871346</v>
       </c>
-      <c r="H77" s="23">
-        <f t="shared" si="7"/>
+      <c r="H77" s="34">
+        <f t="shared" si="3"/>
         <v>-0.56725146198830412</v>
       </c>
-      <c r="I77" s="22">
-        <f t="shared" si="8"/>
+      <c r="I77" s="18">
+        <f>G77 * C77</f>
+        <v>43274.853801169593</v>
+      </c>
+      <c r="J77" s="18">
+        <f>IF(G77 = 0, 0, I77 - F77)</f>
+        <v>-56725.146198830407</v>
+      </c>
+      <c r="K77" s="34">
+        <f>IFERROR((E77 - D77) / D77, 0)</f>
         <v>1.1695906432748537E-2</v>
       </c>
-      <c r="J77" s="13">
-        <f t="shared" si="9"/>
-        <v>43274.853801169593</v>
-      </c>
-      <c r="K77" s="14">
-        <f t="shared" si="10"/>
+      <c r="L77" s="18">
+        <f t="shared" si="4"/>
         <v>101169.59064327486</v>
       </c>
-      <c r="L77" s="13">
-        <f t="shared" si="11"/>
-        <v>-56725.146198830407</v>
-      </c>
-      <c r="M77" s="14">
-        <f t="shared" si="12"/>
+      <c r="M77" s="18">
+        <f>IF(G77 = 0, 0, L77 - F77)</f>
         <v>1169.5906432748598</v>
       </c>
     </row>
@@ -10572,32 +10678,32 @@
       <c r="F78" s="13">
         <v>100000</v>
       </c>
-      <c r="G78" s="20">
-        <f t="shared" si="13"/>
+      <c r="G78" s="32">
+        <f t="shared" si="5"/>
         <v>29.498525073746311</v>
       </c>
-      <c r="H78" s="23">
-        <f t="shared" si="7"/>
+      <c r="H78" s="34">
+        <f t="shared" si="3"/>
         <v>-0.53392330383480824</v>
       </c>
-      <c r="I78" s="22">
-        <f t="shared" si="8"/>
+      <c r="I78" s="18">
+        <f>G78 * C78</f>
+        <v>46607.669616519175</v>
+      </c>
+      <c r="J78" s="18">
+        <f>IF(G78 = 0, 0, I78 - F78)</f>
+        <v>-53392.330383480825</v>
+      </c>
+      <c r="K78" s="34">
+        <f>IFERROR((E78 - D78) / D78, 0)</f>
         <v>-5.3097345132743362E-2</v>
       </c>
-      <c r="J78" s="13">
-        <f t="shared" si="9"/>
-        <v>46607.669616519175</v>
-      </c>
-      <c r="K78" s="14">
-        <f t="shared" si="10"/>
+      <c r="L78" s="18">
+        <f t="shared" si="4"/>
         <v>94690.265486725664</v>
       </c>
-      <c r="L78" s="13">
-        <f t="shared" si="11"/>
-        <v>-53392.330383480825</v>
-      </c>
-      <c r="M78" s="14">
-        <f t="shared" si="12"/>
+      <c r="M78" s="18">
+        <f>IF(G78 = 0, 0, L78 - F78)</f>
         <v>-5309.7345132743358</v>
       </c>
     </row>
@@ -10620,32 +10726,32 @@
       <c r="F79" s="13">
         <v>100000</v>
       </c>
-      <c r="G79" s="20">
-        <f t="shared" si="13"/>
+      <c r="G79" s="32">
+        <f t="shared" si="5"/>
         <v>13.937282229965156</v>
       </c>
-      <c r="H79" s="23">
-        <f t="shared" si="7"/>
+      <c r="H79" s="34">
+        <f t="shared" si="3"/>
         <v>-0.28641114982578397</v>
       </c>
-      <c r="I79" s="22">
-        <f t="shared" si="8"/>
+      <c r="I79" s="18">
+        <f>G79 * C79</f>
+        <v>71358.885017421591</v>
+      </c>
+      <c r="J79" s="18">
+        <f>IF(G79 = 0, 0, I79 - F79)</f>
+        <v>-28641.114982578409</v>
+      </c>
+      <c r="K79" s="34">
+        <f>IFERROR((E79 - D79) / D79, 0)</f>
         <v>4.9477351916376304E-2</v>
       </c>
-      <c r="J79" s="13">
-        <f t="shared" si="9"/>
-        <v>71358.885017421591</v>
-      </c>
-      <c r="K79" s="14">
-        <f t="shared" si="10"/>
+      <c r="L79" s="18">
+        <f t="shared" si="4"/>
         <v>104947.73519163762</v>
       </c>
-      <c r="L79" s="13">
-        <f t="shared" si="11"/>
-        <v>-28641.114982578409</v>
-      </c>
-      <c r="M79" s="14">
-        <f t="shared" si="12"/>
+      <c r="M79" s="18">
+        <f>IF(G79 = 0, 0, L79 - F79)</f>
         <v>4947.735191637621</v>
       </c>
     </row>
@@ -10664,32 +10770,32 @@
       <c r="F80" s="13">
         <v>100000</v>
       </c>
-      <c r="G80" s="20">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="H80" s="23">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="I80" s="22">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="J80" s="13">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="K80" s="14">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="L80" s="13">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="M80" s="14">
-        <f t="shared" si="12"/>
+      <c r="G80" s="32">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H80" s="34">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I80" s="18">
+        <f>G80 * C80</f>
+        <v>0</v>
+      </c>
+      <c r="J80" s="18">
+        <f>IF(G80 = 0, 0, I80 - F80)</f>
+        <v>0</v>
+      </c>
+      <c r="K80" s="34">
+        <f>IFERROR((E80 - D80) / D80, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="L80" s="18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M80" s="18">
+        <f>IF(G80 = 0, 0, L80 - F80)</f>
         <v>0</v>
       </c>
     </row>
@@ -10712,32 +10818,32 @@
       <c r="F81" s="13">
         <v>100000</v>
       </c>
-      <c r="G81" s="20">
-        <f t="shared" si="13"/>
+      <c r="G81" s="32">
+        <f t="shared" si="5"/>
         <v>1196.1722488038279</v>
       </c>
-      <c r="H81" s="23">
-        <f t="shared" si="7"/>
+      <c r="H81" s="34">
+        <f t="shared" si="3"/>
         <v>6.3397129186603007E-2</v>
       </c>
-      <c r="I81" s="22">
-        <f t="shared" si="8"/>
+      <c r="I81" s="18">
+        <f>G81 * C81</f>
+        <v>106339.7129186603</v>
+      </c>
+      <c r="J81" s="18">
+        <f>IF(G81 = 0, 0, I81 - F81)</f>
+        <v>6339.7129186602979</v>
+      </c>
+      <c r="K81" s="34">
+        <f>IFERROR((E81 - D81) / D81, 0)</f>
         <v>-0.29665071770334928</v>
       </c>
-      <c r="J81" s="13">
-        <f t="shared" si="9"/>
-        <v>106339.7129186603</v>
-      </c>
-      <c r="K81" s="14">
-        <f t="shared" si="10"/>
+      <c r="L81" s="18">
+        <f t="shared" si="4"/>
         <v>70334.928229665078</v>
       </c>
-      <c r="L81" s="13">
-        <f t="shared" si="11"/>
-        <v>6339.7129186602979</v>
-      </c>
-      <c r="M81" s="14">
-        <f t="shared" si="12"/>
+      <c r="M81" s="18">
+        <f>IF(G81 = 0, 0, L81 - F81)</f>
         <v>-29665.071770334922</v>
       </c>
     </row>
@@ -10760,32 +10866,32 @@
       <c r="F82" s="13">
         <v>100000</v>
       </c>
-      <c r="G82" s="20">
-        <f t="shared" si="13"/>
+      <c r="G82" s="32">
+        <f t="shared" si="5"/>
         <v>1612.9032258064517</v>
       </c>
-      <c r="H82" s="23">
-        <f t="shared" si="7"/>
+      <c r="H82" s="34">
+        <f t="shared" si="3"/>
         <v>0.42741935483870969</v>
       </c>
-      <c r="I82" s="22">
-        <f t="shared" si="8"/>
+      <c r="I82" s="18">
+        <f>G82 * C82</f>
+        <v>142741.93548387097</v>
+      </c>
+      <c r="J82" s="18">
+        <f>IF(G82 = 0, 0, I82 - F82)</f>
+        <v>42741.93548387097</v>
+      </c>
+      <c r="K82" s="34">
+        <f>IFERROR((E82 - D82) / D82, 0)</f>
         <v>-0.37096774193548387</v>
       </c>
-      <c r="J82" s="13">
-        <f t="shared" si="9"/>
-        <v>142741.93548387097</v>
-      </c>
-      <c r="K82" s="14">
-        <f t="shared" si="10"/>
+      <c r="L82" s="18">
+        <f t="shared" si="4"/>
         <v>62903.225806451614</v>
       </c>
-      <c r="L82" s="13">
-        <f t="shared" si="11"/>
-        <v>42741.93548387097</v>
-      </c>
-      <c r="M82" s="14">
-        <f t="shared" si="12"/>
+      <c r="M82" s="18">
+        <f>IF(G82 = 0, 0, L82 - F82)</f>
         <v>-37096.774193548386</v>
       </c>
     </row>
@@ -10804,32 +10910,32 @@
       <c r="F83" s="13">
         <v>100000</v>
       </c>
-      <c r="G83" s="20">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="H83" s="23">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="I83" s="22">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="J83" s="13">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="K83" s="14">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="L83" s="13">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="M83" s="14">
-        <f t="shared" si="12"/>
+      <c r="G83" s="32">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H83" s="34">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I83" s="18">
+        <f>G83 * C83</f>
+        <v>0</v>
+      </c>
+      <c r="J83" s="18">
+        <f>IF(G83 = 0, 0, I83 - F83)</f>
+        <v>0</v>
+      </c>
+      <c r="K83" s="34">
+        <f>IFERROR((E83 - D83) / D83, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="L83" s="18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M83" s="18">
+        <f>IF(G83 = 0, 0, L83 - F83)</f>
         <v>0</v>
       </c>
     </row>
@@ -10848,32 +10954,32 @@
       <c r="F84" s="13">
         <v>100000</v>
       </c>
-      <c r="G84" s="20">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="H84" s="23">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="I84" s="22">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="J84" s="13">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="K84" s="14">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="L84" s="13">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="M84" s="14">
-        <f t="shared" si="12"/>
+      <c r="G84" s="32">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H84" s="34">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I84" s="18">
+        <f>G84 * C84</f>
+        <v>0</v>
+      </c>
+      <c r="J84" s="18">
+        <f>IF(G84 = 0, 0, I84 - F84)</f>
+        <v>0</v>
+      </c>
+      <c r="K84" s="34">
+        <f>IFERROR((E84 - D84) / D84, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="L84" s="18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M84" s="18">
+        <f>IF(G84 = 0, 0, L84 - F84)</f>
         <v>0</v>
       </c>
     </row>
@@ -10896,32 +11002,32 @@
       <c r="F85" s="13">
         <v>100000</v>
       </c>
-      <c r="G85" s="20">
-        <f t="shared" si="13"/>
+      <c r="G85" s="32">
+        <f t="shared" si="5"/>
         <v>57.636887608069166</v>
       </c>
-      <c r="H85" s="23">
-        <f t="shared" si="7"/>
+      <c r="H85" s="34">
+        <f t="shared" si="3"/>
         <v>-0.47031700288184436</v>
       </c>
-      <c r="I85" s="22">
-        <f t="shared" si="8"/>
+      <c r="I85" s="18">
+        <f>G85 * C85</f>
+        <v>52968.299711815562</v>
+      </c>
+      <c r="J85" s="18">
+        <f>IF(G85 = 0, 0, I85 - F85)</f>
+        <v>-47031.700288184438</v>
+      </c>
+      <c r="K85" s="34">
+        <f>IFERROR((E85 - D85) / D85, 0)</f>
         <v>-5.763688760806916E-3</v>
       </c>
-      <c r="J85" s="13">
-        <f t="shared" si="9"/>
-        <v>52968.299711815562</v>
-      </c>
-      <c r="K85" s="14">
-        <f t="shared" si="10"/>
+      <c r="L85" s="18">
+        <f t="shared" si="4"/>
         <v>99423.631123919316</v>
       </c>
-      <c r="L85" s="13">
-        <f t="shared" si="11"/>
-        <v>-47031.700288184438</v>
-      </c>
-      <c r="M85" s="14">
-        <f t="shared" si="12"/>
+      <c r="M85" s="18">
+        <f>IF(G85 = 0, 0, L85 - F85)</f>
         <v>-576.36887608068355</v>
       </c>
     </row>
@@ -10944,32 +11050,32 @@
       <c r="F86" s="13">
         <v>100000</v>
       </c>
-      <c r="G86" s="20">
-        <f t="shared" si="13"/>
+      <c r="G86" s="32">
+        <f t="shared" si="5"/>
         <v>64.516129032258064</v>
       </c>
-      <c r="H86" s="23">
-        <f t="shared" si="7"/>
+      <c r="H86" s="34">
+        <f t="shared" si="3"/>
         <v>-0.74193548387096775</v>
       </c>
-      <c r="I86" s="22">
-        <f t="shared" si="8"/>
+      <c r="I86" s="18">
+        <f>G86 * C86</f>
+        <v>25806.451612903227</v>
+      </c>
+      <c r="J86" s="18">
+        <f>IF(G86 = 0, 0, I86 - F86)</f>
+        <v>-74193.548387096773</v>
+      </c>
+      <c r="K86" s="34">
+        <f>IFERROR((E86 - D86) / D86, 0)</f>
         <v>-8.387096774193549E-2</v>
       </c>
-      <c r="J86" s="13">
-        <f t="shared" si="9"/>
-        <v>25806.451612903227</v>
-      </c>
-      <c r="K86" s="14">
-        <f t="shared" si="10"/>
+      <c r="L86" s="18">
+        <f t="shared" si="4"/>
         <v>91612.903225806454</v>
       </c>
-      <c r="L86" s="13">
-        <f t="shared" si="11"/>
-        <v>-74193.548387096773</v>
-      </c>
-      <c r="M86" s="14">
-        <f t="shared" si="12"/>
+      <c r="M86" s="18">
+        <f>IF(G86 = 0, 0, L86 - F86)</f>
         <v>-8387.0967741935456</v>
       </c>
     </row>
@@ -10992,32 +11098,32 @@
       <c r="F87" s="13">
         <v>100000</v>
       </c>
-      <c r="G87" s="20">
-        <f t="shared" si="13"/>
+      <c r="G87" s="32">
+        <f t="shared" si="5"/>
         <v>52.631578947368418</v>
       </c>
-      <c r="H87" s="23">
-        <f t="shared" si="7"/>
+      <c r="H87" s="34">
+        <f t="shared" si="3"/>
         <v>-0.61210526315789471</v>
       </c>
-      <c r="I87" s="22">
-        <f t="shared" si="8"/>
+      <c r="I87" s="18">
+        <f>G87 * C87</f>
+        <v>38789.473684210527</v>
+      </c>
+      <c r="J87" s="18">
+        <f>IF(G87 = 0, 0, I87 - F87)</f>
+        <v>-61210.526315789473</v>
+      </c>
+      <c r="K87" s="34">
+        <f>IFERROR((E87 - D87) / D87, 0)</f>
         <v>0.14473684210526316</v>
       </c>
-      <c r="J87" s="13">
-        <f t="shared" si="9"/>
-        <v>38789.473684210527</v>
-      </c>
-      <c r="K87" s="14">
-        <f t="shared" si="10"/>
+      <c r="L87" s="18">
+        <f t="shared" si="4"/>
         <v>114473.68421052631</v>
       </c>
-      <c r="L87" s="13">
-        <f t="shared" si="11"/>
-        <v>-61210.526315789473</v>
-      </c>
-      <c r="M87" s="14">
-        <f t="shared" si="12"/>
+      <c r="M87" s="18">
+        <f>IF(G87 = 0, 0, L87 - F87)</f>
         <v>14473.684210526306</v>
       </c>
     </row>
@@ -11040,32 +11146,32 @@
       <c r="F88" s="13">
         <v>100000</v>
       </c>
-      <c r="G88" s="20">
-        <f t="shared" si="13"/>
+      <c r="G88" s="32">
+        <f t="shared" si="5"/>
         <v>404.85829959514172</v>
       </c>
-      <c r="H88" s="23">
-        <f t="shared" si="7"/>
+      <c r="H88" s="34">
+        <f t="shared" si="3"/>
         <v>0.39271255060728744</v>
       </c>
-      <c r="I88" s="22">
-        <f t="shared" si="8"/>
+      <c r="I88" s="18">
+        <f>G88 * C88</f>
+        <v>139271.25506072876</v>
+      </c>
+      <c r="J88" s="18">
+        <f>IF(G88 = 0, 0, I88 - F88)</f>
+        <v>39271.255060728756</v>
+      </c>
+      <c r="K88" s="34">
+        <f>IFERROR((E88 - D88) / D88, 0)</f>
         <v>4.048582995951417E-2</v>
       </c>
-      <c r="J88" s="13">
-        <f t="shared" si="9"/>
-        <v>139271.25506072876</v>
-      </c>
-      <c r="K88" s="14">
-        <f t="shared" si="10"/>
+      <c r="L88" s="18">
+        <f t="shared" si="4"/>
         <v>104048.58299595142</v>
       </c>
-      <c r="L88" s="13">
-        <f t="shared" si="11"/>
-        <v>39271.255060728756</v>
-      </c>
-      <c r="M88" s="14">
-        <f t="shared" si="12"/>
+      <c r="M88" s="18">
+        <f>IF(G88 = 0, 0, L88 - F88)</f>
         <v>4048.5829959514231</v>
       </c>
     </row>
@@ -11084,32 +11190,32 @@
       <c r="F89" s="13">
         <v>100000</v>
       </c>
-      <c r="G89" s="20">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="H89" s="23">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="I89" s="22">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="J89" s="13">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="K89" s="14">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="L89" s="13">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="M89" s="14">
-        <f t="shared" si="12"/>
+      <c r="G89" s="32">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H89" s="34">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I89" s="18">
+        <f>G89 * C89</f>
+        <v>0</v>
+      </c>
+      <c r="J89" s="18">
+        <f>IF(G89 = 0, 0, I89 - F89)</f>
+        <v>0</v>
+      </c>
+      <c r="K89" s="34">
+        <f>IFERROR((E89 - D89) / D89, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="L89" s="18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M89" s="18">
+        <f>IF(G89 = 0, 0, L89 - F89)</f>
         <v>0</v>
       </c>
     </row>
@@ -11132,32 +11238,32 @@
       <c r="F90" s="13">
         <v>100000</v>
       </c>
-      <c r="G90" s="20">
-        <f t="shared" si="13"/>
+      <c r="G90" s="32">
+        <f t="shared" si="5"/>
         <v>187.61726078799251</v>
       </c>
-      <c r="H90" s="23">
-        <f t="shared" si="7"/>
+      <c r="H90" s="34">
+        <f t="shared" si="3"/>
         <v>0.16885553470919323</v>
       </c>
-      <c r="I90" s="22">
-        <f t="shared" si="8"/>
+      <c r="I90" s="18">
+        <f>G90 * C90</f>
+        <v>116885.55347091933</v>
+      </c>
+      <c r="J90" s="18">
+        <f>IF(G90 = 0, 0, I90 - F90)</f>
+        <v>16885.553470919331</v>
+      </c>
+      <c r="K90" s="34">
+        <f>IFERROR((E90 - D90) / D90, 0)</f>
         <v>-8.4427767354596617E-2</v>
       </c>
-      <c r="J90" s="13">
-        <f t="shared" si="9"/>
-        <v>116885.55347091933</v>
-      </c>
-      <c r="K90" s="14">
-        <f t="shared" si="10"/>
+      <c r="L90" s="18">
+        <f t="shared" si="4"/>
         <v>91557.223264540342</v>
       </c>
-      <c r="L90" s="13">
-        <f t="shared" si="11"/>
-        <v>16885.553470919331</v>
-      </c>
-      <c r="M90" s="14">
-        <f t="shared" si="12"/>
+      <c r="M90" s="18">
+        <f>IF(G90 = 0, 0, L90 - F90)</f>
         <v>-8442.7767354596581</v>
       </c>
     </row>
@@ -11180,32 +11286,32 @@
       <c r="F91" s="13">
         <v>100000</v>
       </c>
-      <c r="G91" s="20">
-        <f t="shared" si="13"/>
+      <c r="G91" s="32">
+        <f t="shared" si="5"/>
         <v>11.074197120708748</v>
       </c>
-      <c r="H91" s="23">
-        <f t="shared" si="7"/>
+      <c r="H91" s="34">
+        <f t="shared" si="3"/>
         <v>-0.37873754152823919</v>
       </c>
-      <c r="I91" s="22">
-        <f t="shared" si="8"/>
+      <c r="I91" s="18">
+        <f>G91 * C91</f>
+        <v>62126.245847176076</v>
+      </c>
+      <c r="J91" s="18">
+        <f>IF(G91 = 0, 0, I91 - F91)</f>
+        <v>-37873.754152823924</v>
+      </c>
+      <c r="K91" s="34">
+        <f>IFERROR((E91 - D91) / D91, 0)</f>
         <v>6.090808416389812E-3</v>
       </c>
-      <c r="J91" s="13">
-        <f t="shared" si="9"/>
-        <v>62126.245847176076</v>
-      </c>
-      <c r="K91" s="14">
-        <f t="shared" si="10"/>
+      <c r="L91" s="18">
+        <f t="shared" si="4"/>
         <v>100609.08084163898</v>
       </c>
-      <c r="L91" s="13">
-        <f t="shared" si="11"/>
-        <v>-37873.754152823924</v>
-      </c>
-      <c r="M91" s="14">
-        <f t="shared" si="12"/>
+      <c r="M91" s="18">
+        <f>IF(G91 = 0, 0, L91 - F91)</f>
         <v>609.08084163897729</v>
       </c>
     </row>
@@ -11228,32 +11334,32 @@
       <c r="F92" s="13">
         <v>100000</v>
       </c>
-      <c r="G92" s="20">
-        <f t="shared" si="13"/>
+      <c r="G92" s="32">
+        <f t="shared" si="5"/>
         <v>28.490028490028489</v>
       </c>
-      <c r="H92" s="23">
-        <f t="shared" si="7"/>
+      <c r="H92" s="34">
+        <f t="shared" si="3"/>
         <v>-0.26495726495726496</v>
       </c>
-      <c r="I92" s="22">
-        <f t="shared" si="8"/>
+      <c r="I92" s="18">
+        <f>G92 * C92</f>
+        <v>73504.2735042735</v>
+      </c>
+      <c r="J92" s="18">
+        <f>IF(G92 = 0, 0, I92 - F92)</f>
+        <v>-26495.7264957265</v>
+      </c>
+      <c r="K92" s="34">
+        <f>IFERROR((E92 - D92) / D92, 0)</f>
         <v>-1.8518518518518517E-2</v>
       </c>
-      <c r="J92" s="13">
-        <f t="shared" si="9"/>
-        <v>73504.2735042735</v>
-      </c>
-      <c r="K92" s="14">
-        <f t="shared" si="10"/>
+      <c r="L92" s="18">
+        <f t="shared" si="4"/>
         <v>98148.148148148146</v>
       </c>
-      <c r="L92" s="13">
-        <f t="shared" si="11"/>
-        <v>-26495.7264957265</v>
-      </c>
-      <c r="M92" s="14">
-        <f t="shared" si="12"/>
+      <c r="M92" s="18">
+        <f>IF(G92 = 0, 0, L92 - F92)</f>
         <v>-1851.851851851854</v>
       </c>
     </row>
@@ -11276,32 +11382,32 @@
       <c r="F93" s="13">
         <v>100000</v>
       </c>
-      <c r="G93" s="20">
-        <f t="shared" si="13"/>
+      <c r="G93" s="32">
+        <f t="shared" si="5"/>
         <v>21.563342318059298</v>
       </c>
-      <c r="H93" s="23">
-        <f t="shared" si="7"/>
+      <c r="H93" s="34">
+        <f t="shared" si="3"/>
         <v>-0.1169811320754717</v>
       </c>
-      <c r="I93" s="22">
-        <f t="shared" si="8"/>
+      <c r="I93" s="18">
+        <f>G93 * C93</f>
+        <v>88301.886792452831</v>
+      </c>
+      <c r="J93" s="18">
+        <f>IF(G93 = 0, 0, I93 - F93)</f>
+        <v>-11698.113207547169</v>
+      </c>
+      <c r="K93" s="34">
+        <f>IFERROR((E93 - D93) / D93, 0)</f>
         <v>-2.1024258760107817E-2</v>
       </c>
-      <c r="J93" s="13">
-        <f t="shared" si="9"/>
-        <v>88301.886792452831</v>
-      </c>
-      <c r="K93" s="14">
-        <f t="shared" si="10"/>
+      <c r="L93" s="18">
+        <f t="shared" si="4"/>
         <v>97897.574123989209</v>
       </c>
-      <c r="L93" s="13">
-        <f t="shared" si="11"/>
-        <v>-11698.113207547169</v>
-      </c>
-      <c r="M93" s="14">
-        <f t="shared" si="12"/>
+      <c r="M93" s="18">
+        <f>IF(G93 = 0, 0, L93 - F93)</f>
         <v>-2102.4258760107914</v>
       </c>
     </row>
@@ -11324,32 +11430,32 @@
       <c r="F94" s="13">
         <v>100000</v>
       </c>
-      <c r="G94" s="20">
-        <f t="shared" si="13"/>
+      <c r="G94" s="32">
+        <f t="shared" si="5"/>
         <v>147.92899408284023</v>
       </c>
-      <c r="H94" s="23">
-        <f t="shared" si="7"/>
+      <c r="H94" s="34">
+        <f t="shared" si="3"/>
         <v>-0.70118343195266275</v>
       </c>
-      <c r="I94" s="22">
-        <f t="shared" si="8"/>
+      <c r="I94" s="18">
+        <f>G94 * C94</f>
+        <v>29881.656804733728</v>
+      </c>
+      <c r="J94" s="18">
+        <f>IF(G94 = 0, 0, I94 - F94)</f>
+        <v>-70118.343195266265</v>
+      </c>
+      <c r="K94" s="34">
+        <f>IFERROR((E94 - D94) / D94, 0)</f>
         <v>5.3254437869822487E-2</v>
       </c>
-      <c r="J94" s="13">
-        <f t="shared" si="9"/>
-        <v>29881.656804733728</v>
-      </c>
-      <c r="K94" s="14">
-        <f t="shared" si="10"/>
+      <c r="L94" s="18">
+        <f t="shared" si="4"/>
         <v>105325.44378698224</v>
       </c>
-      <c r="L94" s="13">
-        <f t="shared" si="11"/>
-        <v>-70118.343195266265</v>
-      </c>
-      <c r="M94" s="14">
-        <f t="shared" si="12"/>
+      <c r="M94" s="18">
+        <f>IF(G94 = 0, 0, L94 - F94)</f>
         <v>5325.4437869822432</v>
       </c>
     </row>
@@ -11372,32 +11478,32 @@
       <c r="F95" s="13">
         <v>100000</v>
       </c>
-      <c r="G95" s="20">
-        <f t="shared" si="13"/>
+      <c r="G95" s="32">
+        <f t="shared" si="5"/>
         <v>578.03468208092488</v>
       </c>
-      <c r="H95" s="23">
-        <f t="shared" si="7"/>
+      <c r="H95" s="34">
+        <f t="shared" si="3"/>
         <v>0.13294797687861271</v>
       </c>
-      <c r="I95" s="22">
-        <f t="shared" si="8"/>
+      <c r="I95" s="18">
+        <f>G95 * C95</f>
+        <v>113294.79768786128</v>
+      </c>
+      <c r="J95" s="18">
+        <f>IF(G95 = 0, 0, I95 - F95)</f>
+        <v>13294.797687861283</v>
+      </c>
+      <c r="K95" s="34">
+        <f>IFERROR((E95 - D95) / D95, 0)</f>
         <v>4.046242774566474E-2</v>
       </c>
-      <c r="J95" s="13">
-        <f t="shared" si="9"/>
-        <v>113294.79768786128</v>
-      </c>
-      <c r="K95" s="14">
-        <f t="shared" si="10"/>
+      <c r="L95" s="18">
+        <f t="shared" si="4"/>
         <v>104046.24277456648</v>
       </c>
-      <c r="L95" s="13">
-        <f t="shared" si="11"/>
-        <v>13294.797687861283</v>
-      </c>
-      <c r="M95" s="14">
-        <f t="shared" si="12"/>
+      <c r="M95" s="18">
+        <f>IF(G95 = 0, 0, L95 - F95)</f>
         <v>4046.2427745664754</v>
       </c>
     </row>
@@ -11416,32 +11522,32 @@
       <c r="F96" s="13">
         <v>100000</v>
       </c>
-      <c r="G96" s="20">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="H96" s="23">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="I96" s="22">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="J96" s="13">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="K96" s="14">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="L96" s="13">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="M96" s="14">
-        <f t="shared" si="12"/>
+      <c r="G96" s="32">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H96" s="34">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I96" s="18">
+        <f>G96 * C96</f>
+        <v>0</v>
+      </c>
+      <c r="J96" s="18">
+        <f>IF(G96 = 0, 0, I96 - F96)</f>
+        <v>0</v>
+      </c>
+      <c r="K96" s="34">
+        <f>IFERROR((E96 - D96) / D96, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="L96" s="18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M96" s="18">
+        <f>IF(G96 = 0, 0, L96 - F96)</f>
         <v>0</v>
       </c>
     </row>
@@ -11464,32 +11570,32 @@
       <c r="F97" s="13">
         <v>100000</v>
       </c>
-      <c r="G97" s="20">
-        <f t="shared" si="13"/>
+      <c r="G97" s="32">
+        <f t="shared" si="5"/>
         <v>425.531914893617</v>
       </c>
-      <c r="H97" s="23">
-        <f t="shared" si="7"/>
+      <c r="H97" s="34">
+        <f t="shared" si="3"/>
         <v>1.0595744680851065</v>
       </c>
-      <c r="I97" s="22">
-        <f t="shared" si="8"/>
+      <c r="I97" s="18">
+        <f>G97 * C97</f>
+        <v>205957.44680851063</v>
+      </c>
+      <c r="J97" s="18">
+        <f>IF(G97 = 0, 0, I97 - F97)</f>
+        <v>105957.44680851063</v>
+      </c>
+      <c r="K97" s="34">
+        <f>IFERROR((E97 - D97) / D97, 0)</f>
         <v>-3.8297872340425532E-2</v>
       </c>
-      <c r="J97" s="13">
-        <f t="shared" si="9"/>
-        <v>205957.44680851063</v>
-      </c>
-      <c r="K97" s="14">
-        <f t="shared" si="10"/>
+      <c r="L97" s="18">
+        <f t="shared" si="4"/>
         <v>96170.212765957447</v>
       </c>
-      <c r="L97" s="13">
-        <f t="shared" si="11"/>
-        <v>105957.44680851063</v>
-      </c>
-      <c r="M97" s="14">
-        <f t="shared" si="12"/>
+      <c r="M97" s="18">
+        <f>IF(G97 = 0, 0, L97 - F97)</f>
         <v>-3829.7872340425529</v>
       </c>
     </row>
@@ -11508,32 +11614,32 @@
       <c r="F98" s="13">
         <v>100000</v>
       </c>
-      <c r="G98" s="20">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="H98" s="23">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="I98" s="22">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="J98" s="13">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="K98" s="14">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="L98" s="13">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="M98" s="14">
-        <f t="shared" si="12"/>
+      <c r="G98" s="32">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H98" s="34">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I98" s="18">
+        <f>G98 * C98</f>
+        <v>0</v>
+      </c>
+      <c r="J98" s="18">
+        <f>IF(G98 = 0, 0, I98 - F98)</f>
+        <v>0</v>
+      </c>
+      <c r="K98" s="34">
+        <f>IFERROR((E98 - D98) / D98, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="L98" s="18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M98" s="18">
+        <f>IF(G98 = 0, 0, L98 - F98)</f>
         <v>0</v>
       </c>
     </row>
@@ -11556,32 +11662,32 @@
       <c r="F99" s="13">
         <v>100000</v>
       </c>
-      <c r="G99" s="20">
-        <f t="shared" si="13"/>
+      <c r="G99" s="32">
+        <f t="shared" si="5"/>
         <v>7751.937984496124</v>
       </c>
-      <c r="H99" s="23">
-        <f t="shared" si="7"/>
+      <c r="H99" s="34">
+        <f t="shared" si="3"/>
         <v>-6.2015503875969047E-2</v>
       </c>
-      <c r="I99" s="22">
-        <f t="shared" si="8"/>
+      <c r="I99" s="18">
+        <f>G99 * C99</f>
+        <v>93798.449612403099</v>
+      </c>
+      <c r="J99" s="18">
+        <f>IF(G99 = 0, 0, I99 - F99)</f>
+        <v>-6201.5503875969007</v>
+      </c>
+      <c r="K99" s="34">
+        <f>IFERROR((E99 - D99) / D99, 0)</f>
         <v>7.7519379844960962E-3</v>
       </c>
-      <c r="J99" s="13">
-        <f t="shared" si="9"/>
-        <v>93798.449612403099</v>
-      </c>
-      <c r="K99" s="14">
-        <f t="shared" si="10"/>
+      <c r="L99" s="18">
+        <f t="shared" si="4"/>
         <v>100775.19379844962</v>
       </c>
-      <c r="L99" s="13">
-        <f t="shared" si="11"/>
-        <v>-6201.5503875969007</v>
-      </c>
-      <c r="M99" s="14">
-        <f t="shared" si="12"/>
+      <c r="M99" s="18">
+        <f>IF(G99 = 0, 0, L99 - F99)</f>
         <v>775.19379844961804</v>
       </c>
     </row>
@@ -11604,32 +11710,32 @@
       <c r="F100" s="13">
         <v>100000</v>
       </c>
-      <c r="G100" s="20">
-        <f t="shared" si="13"/>
+      <c r="G100" s="32">
+        <f t="shared" si="5"/>
         <v>537.63440860215053</v>
       </c>
-      <c r="H100" s="23">
-        <f t="shared" si="7"/>
+      <c r="H100" s="34">
+        <f t="shared" si="3"/>
         <v>0.29032258064516131</v>
       </c>
-      <c r="I100" s="22">
-        <f t="shared" si="8"/>
+      <c r="I100" s="18">
+        <f>G100 * C100</f>
+        <v>129032.25806451612</v>
+      </c>
+      <c r="J100" s="18">
+        <f>IF(G100 = 0, 0, I100 - F100)</f>
+        <v>29032.258064516122</v>
+      </c>
+      <c r="K100" s="34">
+        <f>IFERROR((E100 - D100) / D100, 0)</f>
         <v>-2.1505376344086023E-2</v>
       </c>
-      <c r="J100" s="13">
-        <f t="shared" si="9"/>
-        <v>129032.25806451612</v>
-      </c>
-      <c r="K100" s="14">
-        <f t="shared" si="10"/>
+      <c r="L100" s="18">
+        <f t="shared" si="4"/>
         <v>97849.462365591389</v>
       </c>
-      <c r="L100" s="13">
-        <f t="shared" si="11"/>
-        <v>29032.258064516122</v>
-      </c>
-      <c r="M100" s="14">
-        <f t="shared" si="12"/>
+      <c r="M100" s="18">
+        <f>IF(G100 = 0, 0, L100 - F100)</f>
         <v>-2150.5376344086108</v>
       </c>
     </row>
@@ -11652,32 +11758,32 @@
       <c r="F101" s="13">
         <v>100000</v>
       </c>
-      <c r="G101" s="20">
-        <f t="shared" si="13"/>
+      <c r="G101" s="32">
+        <f t="shared" si="5"/>
         <v>6134.9693251533736</v>
       </c>
-      <c r="H101" s="23">
-        <f t="shared" si="7"/>
+      <c r="H101" s="34">
+        <f t="shared" si="3"/>
         <v>-0.2760736196319018</v>
       </c>
-      <c r="I101" s="22">
-        <f t="shared" si="8"/>
+      <c r="I101" s="18">
+        <f>G101 * C101</f>
+        <v>72392.638036809818</v>
+      </c>
+      <c r="J101" s="18">
+        <f>IF(G101 = 0, 0, I101 - F101)</f>
+        <v>-27607.361963190182</v>
+      </c>
+      <c r="K101" s="34">
+        <f>IFERROR((E101 - D101) / D101, 0)</f>
         <v>1.2269938650306704E-2</v>
       </c>
-      <c r="J101" s="13">
-        <f t="shared" si="9"/>
-        <v>72392.638036809818</v>
-      </c>
-      <c r="K101" s="14">
-        <f t="shared" si="10"/>
+      <c r="L101" s="18">
+        <f t="shared" si="4"/>
         <v>101226.99386503066</v>
       </c>
-      <c r="L101" s="13">
-        <f t="shared" si="11"/>
-        <v>-27607.361963190182</v>
-      </c>
-      <c r="M101" s="14">
-        <f t="shared" si="12"/>
+      <c r="M101" s="18">
+        <f>IF(G101 = 0, 0, L101 - F101)</f>
         <v>1226.9938650306576</v>
       </c>
     </row>
@@ -11700,32 +11806,32 @@
       <c r="F102" s="13">
         <v>100000</v>
       </c>
-      <c r="G102" s="20">
-        <f t="shared" si="13"/>
+      <c r="G102" s="32">
+        <f t="shared" si="5"/>
         <v>395.25691699604744</v>
       </c>
-      <c r="H102" s="23">
-        <f t="shared" si="7"/>
+      <c r="H102" s="34">
+        <f t="shared" si="3"/>
         <v>-0.72173913043478255</v>
       </c>
-      <c r="I102" s="22">
-        <f t="shared" si="8"/>
+      <c r="I102" s="18">
+        <f>G102 * C102</f>
+        <v>27826.086956521744</v>
+      </c>
+      <c r="J102" s="18">
+        <f>IF(G102 = 0, 0, I102 - F102)</f>
+        <v>-72173.913043478256</v>
+      </c>
+      <c r="K102" s="34">
+        <f>IFERROR((E102 - D102) / D102, 0)</f>
         <v>2.766798418972332E-2</v>
       </c>
-      <c r="J102" s="13">
-        <f t="shared" si="9"/>
-        <v>27826.086956521744</v>
-      </c>
-      <c r="K102" s="14">
-        <f t="shared" si="10"/>
+      <c r="L102" s="18">
+        <f t="shared" si="4"/>
         <v>102766.79841897234</v>
       </c>
-      <c r="L102" s="13">
-        <f t="shared" si="11"/>
-        <v>-72173.913043478256</v>
-      </c>
-      <c r="M102" s="14">
-        <f t="shared" si="12"/>
+      <c r="M102" s="18">
+        <f>IF(G102 = 0, 0, L102 - F102)</f>
         <v>2766.7984189723356</v>
       </c>
     </row>
@@ -11748,32 +11854,32 @@
       <c r="F103" s="13">
         <v>100000</v>
       </c>
-      <c r="G103" s="20">
-        <f t="shared" si="13"/>
+      <c r="G103" s="32">
+        <f t="shared" si="5"/>
         <v>324.6753246753247</v>
       </c>
-      <c r="H103" s="23">
-        <f t="shared" si="7"/>
+      <c r="H103" s="34">
+        <f t="shared" si="3"/>
         <v>0.88961038961038963</v>
       </c>
-      <c r="I103" s="22">
-        <f t="shared" si="8"/>
+      <c r="I103" s="18">
+        <f>G103 * C103</f>
+        <v>188961.03896103898</v>
+      </c>
+      <c r="J103" s="18">
+        <f>IF(G103 = 0, 0, I103 - F103)</f>
+        <v>88961.038961038983</v>
+      </c>
+      <c r="K103" s="34">
+        <f>IFERROR((E103 - D103) / D103, 0)</f>
         <v>6.4935064935064939E-3</v>
       </c>
-      <c r="J103" s="13">
-        <f t="shared" si="9"/>
-        <v>188961.03896103898</v>
-      </c>
-      <c r="K103" s="14">
-        <f t="shared" si="10"/>
+      <c r="L103" s="18">
+        <f t="shared" si="4"/>
         <v>100649.35064935066</v>
       </c>
-      <c r="L103" s="13">
-        <f t="shared" si="11"/>
-        <v>88961.038961038983</v>
-      </c>
-      <c r="M103" s="14">
-        <f t="shared" si="12"/>
+      <c r="M103" s="18">
+        <f>IF(G103 = 0, 0, L103 - F103)</f>
         <v>649.35064935065748</v>
       </c>
     </row>
@@ -11796,32 +11902,32 @@
       <c r="F104" s="13">
         <v>100000</v>
       </c>
-      <c r="G104" s="20">
-        <f t="shared" si="13"/>
+      <c r="G104" s="32">
+        <f t="shared" si="5"/>
         <v>266.66666666666669</v>
       </c>
-      <c r="H104" s="23">
-        <f t="shared" si="7"/>
+      <c r="H104" s="34">
+        <f t="shared" si="3"/>
         <v>1.96</v>
       </c>
-      <c r="I104" s="22">
-        <f t="shared" si="8"/>
+      <c r="I104" s="18">
+        <f>G104 * C104</f>
+        <v>296000</v>
+      </c>
+      <c r="J104" s="18">
+        <f>IF(G104 = 0, 0, I104 - F104)</f>
+        <v>196000</v>
+      </c>
+      <c r="K104" s="34">
+        <f>IFERROR((E104 - D104) / D104, 0)</f>
         <v>-5.3333333333333337E-2</v>
       </c>
-      <c r="J104" s="13">
-        <f t="shared" si="9"/>
-        <v>296000</v>
-      </c>
-      <c r="K104" s="14">
-        <f t="shared" si="10"/>
+      <c r="L104" s="18">
+        <f t="shared" si="4"/>
         <v>94666.666666666672</v>
       </c>
-      <c r="L104" s="13">
-        <f t="shared" si="11"/>
-        <v>196000</v>
-      </c>
-      <c r="M104" s="14">
-        <f t="shared" si="12"/>
+      <c r="M104" s="18">
+        <f>IF(G104 = 0, 0, L104 - F104)</f>
         <v>-5333.3333333333285</v>
       </c>
     </row>
@@ -11844,32 +11950,32 @@
       <c r="F105" s="13">
         <v>100000</v>
       </c>
-      <c r="G105" s="20">
-        <f t="shared" si="13"/>
+      <c r="G105" s="32">
+        <f t="shared" si="5"/>
         <v>331.12582781456956</v>
       </c>
-      <c r="H105" s="23">
-        <f t="shared" si="7"/>
+      <c r="H105" s="34">
+        <f t="shared" si="3"/>
         <v>11.814569536423841</v>
       </c>
-      <c r="I105" s="22">
-        <f t="shared" si="8"/>
+      <c r="I105" s="18">
+        <f>G105 * C105</f>
+        <v>1281456.9536423841</v>
+      </c>
+      <c r="J105" s="18">
+        <f>IF(G105 = 0, 0, I105 - F105)</f>
+        <v>1181456.9536423841</v>
+      </c>
+      <c r="K105" s="34">
+        <f>IFERROR((E105 - D105) / D105, 0)</f>
         <v>-1.6556291390728478E-2</v>
       </c>
-      <c r="J105" s="13">
-        <f t="shared" si="9"/>
-        <v>1281456.9536423841</v>
-      </c>
-      <c r="K105" s="14">
-        <f t="shared" si="10"/>
+      <c r="L105" s="18">
+        <f t="shared" si="4"/>
         <v>98344.370860927156</v>
       </c>
-      <c r="L105" s="13">
-        <f t="shared" si="11"/>
-        <v>1181456.9536423841</v>
-      </c>
-      <c r="M105" s="14">
-        <f t="shared" si="12"/>
+      <c r="M105" s="18">
+        <f>IF(G105 = 0, 0, L105 - F105)</f>
         <v>-1655.6291390728438</v>
       </c>
     </row>
@@ -11892,32 +11998,32 @@
       <c r="F106" s="13">
         <v>100000</v>
       </c>
-      <c r="G106" s="20">
-        <f t="shared" si="13"/>
+      <c r="G106" s="32">
+        <f t="shared" si="5"/>
         <v>5617.9775280898875</v>
       </c>
-      <c r="H106" s="23">
-        <f t="shared" si="7"/>
+      <c r="H106" s="34">
+        <f t="shared" si="3"/>
         <v>-0.38764044943820225</v>
       </c>
-      <c r="I106" s="22">
-        <f t="shared" si="8"/>
+      <c r="I106" s="18">
+        <f>G106 * C106</f>
+        <v>61235.955056179773</v>
+      </c>
+      <c r="J106" s="18">
+        <f>IF(G106 = 0, 0, I106 - F106)</f>
+        <v>-38764.044943820227</v>
+      </c>
+      <c r="K106" s="34">
+        <f>IFERROR((E106 - D106) / D106, 0)</f>
         <v>5.6179775280897678E-3</v>
       </c>
-      <c r="J106" s="13">
-        <f t="shared" si="9"/>
-        <v>61235.955056179773</v>
-      </c>
-      <c r="K106" s="14">
-        <f t="shared" si="10"/>
+      <c r="L106" s="18">
+        <f t="shared" si="4"/>
         <v>100561.79775280898</v>
       </c>
-      <c r="L106" s="13">
-        <f t="shared" si="11"/>
-        <v>-38764.044943820227</v>
-      </c>
-      <c r="M106" s="14">
-        <f t="shared" si="12"/>
+      <c r="M106" s="18">
+        <f>IF(G106 = 0, 0, L106 - F106)</f>
         <v>561.7977528089832</v>
       </c>
     </row>
@@ -11940,32 +12046,32 @@
       <c r="F107" s="13">
         <v>100000</v>
       </c>
-      <c r="G107" s="20">
-        <f t="shared" si="13"/>
+      <c r="G107" s="32">
+        <f t="shared" si="5"/>
         <v>1314.060446780552</v>
       </c>
-      <c r="H107" s="23">
-        <f t="shared" si="7"/>
+      <c r="H107" s="34">
+        <f t="shared" si="3"/>
         <v>0.43232588699080171</v>
       </c>
-      <c r="I107" s="22">
-        <f t="shared" si="8"/>
+      <c r="I107" s="18">
+        <f>G107 * C107</f>
+        <v>143232.58869908017</v>
+      </c>
+      <c r="J107" s="18">
+        <f>IF(G107 = 0, 0, I107 - F107)</f>
+        <v>43232.588699080166</v>
+      </c>
+      <c r="K107" s="34">
+        <f>IFERROR((E107 - D107) / D107, 0)</f>
         <v>7.8843626806834235E-3</v>
       </c>
-      <c r="J107" s="13">
-        <f t="shared" si="9"/>
-        <v>143232.58869908017</v>
-      </c>
-      <c r="K107" s="14">
-        <f t="shared" si="10"/>
+      <c r="L107" s="18">
+        <f t="shared" si="4"/>
         <v>100788.43626806834</v>
       </c>
-      <c r="L107" s="13">
-        <f t="shared" si="11"/>
-        <v>43232.588699080166</v>
-      </c>
-      <c r="M107" s="14">
-        <f t="shared" si="12"/>
+      <c r="M107" s="18">
+        <f>IF(G107 = 0, 0, L107 - F107)</f>
         <v>788.43626806834072</v>
       </c>
     </row>
@@ -11988,32 +12094,32 @@
       <c r="F108" s="13">
         <v>100000</v>
       </c>
-      <c r="G108" s="20">
-        <f t="shared" si="13"/>
+      <c r="G108" s="32">
+        <f t="shared" si="5"/>
         <v>5076.1421319796955</v>
       </c>
-      <c r="H108" s="23">
-        <f t="shared" si="7"/>
+      <c r="H108" s="34">
+        <f t="shared" si="3"/>
         <v>-0.4771573604060913</v>
       </c>
-      <c r="I108" s="22">
-        <f t="shared" si="8"/>
+      <c r="I108" s="18">
+        <f>G108 * C108</f>
+        <v>52284.263959390868</v>
+      </c>
+      <c r="J108" s="18">
+        <f>IF(G108 = 0, 0, I108 - F108)</f>
+        <v>-47715.736040609132</v>
+      </c>
+      <c r="K108" s="34">
+        <f>IFERROR((E108 - D108) / D108, 0)</f>
         <v>5.0761421319797679E-3</v>
       </c>
-      <c r="J108" s="13">
-        <f t="shared" si="9"/>
-        <v>52284.263959390868</v>
-      </c>
-      <c r="K108" s="14">
-        <f t="shared" si="10"/>
+      <c r="L108" s="18">
+        <f t="shared" si="4"/>
         <v>100507.61421319797</v>
       </c>
-      <c r="L108" s="13">
-        <f t="shared" si="11"/>
-        <v>-47715.736040609132</v>
-      </c>
-      <c r="M108" s="14">
-        <f t="shared" si="12"/>
+      <c r="M108" s="18">
+        <f>IF(G108 = 0, 0, L108 - F108)</f>
         <v>507.61421319797228</v>
       </c>
     </row>
@@ -12036,32 +12142,32 @@
       <c r="F109" s="13">
         <v>100000</v>
       </c>
-      <c r="G109" s="20">
-        <f t="shared" si="13"/>
+      <c r="G109" s="32">
+        <f t="shared" si="5"/>
         <v>146.19883040935673</v>
       </c>
-      <c r="H109" s="23">
-        <f t="shared" si="7"/>
+      <c r="H109" s="34">
+        <f t="shared" si="3"/>
         <v>-0.47514619883040937</v>
       </c>
-      <c r="I109" s="22">
-        <f t="shared" si="8"/>
+      <c r="I109" s="18">
+        <f>G109 * C109</f>
+        <v>52485.380116959066</v>
+      </c>
+      <c r="J109" s="18">
+        <f>IF(G109 = 0, 0, I109 - F109)</f>
+        <v>-47514.619883040934</v>
+      </c>
+      <c r="K109" s="34">
+        <f>IFERROR((E109 - D109) / D109, 0)</f>
         <v>-7.1637426900584791E-2</v>
       </c>
-      <c r="J109" s="13">
-        <f t="shared" si="9"/>
-        <v>52485.380116959066</v>
-      </c>
-      <c r="K109" s="14">
-        <f t="shared" si="10"/>
+      <c r="L109" s="18">
+        <f t="shared" si="4"/>
         <v>92836.257309941531</v>
       </c>
-      <c r="L109" s="13">
-        <f t="shared" si="11"/>
-        <v>-47514.619883040934</v>
-      </c>
-      <c r="M109" s="14">
-        <f t="shared" si="12"/>
+      <c r="M109" s="18">
+        <f>IF(G109 = 0, 0, L109 - F109)</f>
         <v>-7163.7426900584687</v>
       </c>
     </row>
@@ -12084,32 +12190,32 @@
       <c r="F110" s="13">
         <v>100000</v>
       </c>
-      <c r="G110" s="20">
-        <f t="shared" si="13"/>
+      <c r="G110" s="32">
+        <f t="shared" si="5"/>
         <v>432.90043290043292</v>
       </c>
-      <c r="H110" s="23">
-        <f t="shared" si="7"/>
+      <c r="H110" s="34">
+        <f t="shared" si="3"/>
         <v>0.74458874458874458</v>
       </c>
-      <c r="I110" s="22">
-        <f t="shared" si="8"/>
+      <c r="I110" s="18">
+        <f>G110 * C110</f>
+        <v>174458.87445887446</v>
+      </c>
+      <c r="J110" s="18">
+        <f>IF(G110 = 0, 0, I110 - F110)</f>
+        <v>74458.874458874459</v>
+      </c>
+      <c r="K110" s="34">
+        <f>IFERROR((E110 - D110) / D110, 0)</f>
         <v>-3.0303030303030304E-2</v>
       </c>
-      <c r="J110" s="13">
-        <f t="shared" si="9"/>
-        <v>174458.87445887446</v>
-      </c>
-      <c r="K110" s="14">
-        <f t="shared" si="10"/>
+      <c r="L110" s="18">
+        <f t="shared" si="4"/>
         <v>96969.696969696975</v>
       </c>
-      <c r="L110" s="13">
-        <f t="shared" si="11"/>
-        <v>74458.874458874459</v>
-      </c>
-      <c r="M110" s="14">
-        <f t="shared" si="12"/>
+      <c r="M110" s="18">
+        <f>IF(G110 = 0, 0, L110 - F110)</f>
         <v>-3030.3030303030246</v>
       </c>
     </row>
@@ -12132,32 +12238,32 @@
       <c r="F111" s="13">
         <v>100000</v>
       </c>
-      <c r="G111" s="20">
-        <f t="shared" si="13"/>
+      <c r="G111" s="32">
+        <f t="shared" si="5"/>
         <v>75.329566854990588</v>
       </c>
-      <c r="H111" s="23">
-        <f t="shared" si="7"/>
+      <c r="H111" s="34">
+        <f t="shared" si="3"/>
         <v>-0.29566854990583802</v>
       </c>
-      <c r="I111" s="22">
-        <f t="shared" si="8"/>
+      <c r="I111" s="18">
+        <f>G111 * C111</f>
+        <v>70433.145009416199</v>
+      </c>
+      <c r="J111" s="18">
+        <f>IF(G111 = 0, 0, I111 - F111)</f>
+        <v>-29566.854990583801</v>
+      </c>
+      <c r="K111" s="34">
+        <f>IFERROR((E111 - D111) / D111, 0)</f>
         <v>-0.10357815442561205</v>
       </c>
-      <c r="J111" s="13">
-        <f t="shared" si="9"/>
-        <v>70433.145009416199</v>
-      </c>
-      <c r="K111" s="14">
-        <f t="shared" si="10"/>
+      <c r="L111" s="18">
+        <f t="shared" si="4"/>
         <v>89642.184557438799</v>
       </c>
-      <c r="L111" s="13">
-        <f t="shared" si="11"/>
-        <v>-29566.854990583801</v>
-      </c>
-      <c r="M111" s="14">
-        <f t="shared" si="12"/>
+      <c r="M111" s="18">
+        <f>IF(G111 = 0, 0, L111 - F111)</f>
         <v>-10357.815442561201</v>
       </c>
     </row>
@@ -12180,32 +12286,32 @@
       <c r="F112" s="13">
         <v>100000</v>
       </c>
-      <c r="G112" s="20">
-        <f t="shared" si="13"/>
+      <c r="G112" s="32">
+        <f t="shared" si="5"/>
         <v>1.2871669455528383</v>
       </c>
-      <c r="H112" s="23">
-        <f t="shared" si="7"/>
+      <c r="H112" s="34">
+        <f t="shared" si="3"/>
         <v>-0.37765478182520273</v>
       </c>
-      <c r="I112" s="22">
-        <f t="shared" si="8"/>
+      <c r="I112" s="18">
+        <f>G112 * C112</f>
+        <v>62234.521817479734</v>
+      </c>
+      <c r="J112" s="18">
+        <f>IF(G112 = 0, 0, I112 - F112)</f>
+        <v>-37765.478182520266</v>
+      </c>
+      <c r="K112" s="34">
+        <f>IFERROR((E112 - D112) / D112, 0)</f>
         <v>3.3595057278929079E-2</v>
       </c>
-      <c r="J112" s="13">
-        <f t="shared" si="9"/>
-        <v>62234.521817479734</v>
-      </c>
-      <c r="K112" s="14">
-        <f t="shared" si="10"/>
+      <c r="L112" s="18">
+        <f t="shared" si="4"/>
         <v>103359.50572789292</v>
       </c>
-      <c r="L112" s="13">
-        <f t="shared" si="11"/>
-        <v>-37765.478182520266</v>
-      </c>
-      <c r="M112" s="14">
-        <f t="shared" si="12"/>
+      <c r="M112" s="18">
+        <f>IF(G112 = 0, 0, L112 - F112)</f>
         <v>3359.5057278929162</v>
       </c>
     </row>
@@ -12228,32 +12334,32 @@
       <c r="F113" s="13">
         <v>100000</v>
       </c>
-      <c r="G113" s="20">
-        <f t="shared" si="13"/>
+      <c r="G113" s="32">
+        <f t="shared" si="5"/>
         <v>175.43859649122808</v>
       </c>
-      <c r="H113" s="23">
-        <f t="shared" si="7"/>
+      <c r="H113" s="34">
+        <f t="shared" si="3"/>
         <v>0.72280701754385968</v>
       </c>
-      <c r="I113" s="22">
-        <f t="shared" si="8"/>
+      <c r="I113" s="18">
+        <f>G113 * C113</f>
+        <v>172280.70175438598</v>
+      </c>
+      <c r="J113" s="18">
+        <f>IF(G113 = 0, 0, I113 - F113)</f>
+        <v>72280.701754385984</v>
+      </c>
+      <c r="K113" s="34">
+        <f>IFERROR((E113 - D113) / D113, 0)</f>
         <v>-0.56140350877192979</v>
       </c>
-      <c r="J113" s="13">
-        <f t="shared" si="9"/>
-        <v>172280.70175438598</v>
-      </c>
-      <c r="K113" s="14">
-        <f t="shared" si="10"/>
+      <c r="L113" s="18">
+        <f t="shared" si="4"/>
         <v>43859.649122807023</v>
       </c>
-      <c r="L113" s="13">
-        <f t="shared" si="11"/>
-        <v>72280.701754385984</v>
-      </c>
-      <c r="M113" s="14">
-        <f t="shared" si="12"/>
+      <c r="M113" s="18">
+        <f>IF(G113 = 0, 0, L113 - F113)</f>
         <v>-56140.350877192977</v>
       </c>
     </row>
@@ -12276,103 +12382,127 @@
       <c r="F114" s="15">
         <v>100000</v>
       </c>
-      <c r="G114" s="21">
-        <f t="shared" si="13"/>
+      <c r="G114" s="33">
+        <f t="shared" si="5"/>
         <v>1644.7368421052631</v>
       </c>
-      <c r="H114" s="24">
-        <f t="shared" si="7"/>
+      <c r="H114" s="36">
+        <f t="shared" si="3"/>
         <v>0.64309210526315808</v>
       </c>
-      <c r="I114" s="25">
-        <f t="shared" si="8"/>
+      <c r="I114" s="19">
+        <f>G114 * C114</f>
+        <v>164309.21052631579</v>
+      </c>
+      <c r="J114" s="19">
+        <f>IF(G114 = 0, 0, I114 - F114)</f>
+        <v>64309.210526315786</v>
+      </c>
+      <c r="K114" s="36">
+        <f>IFERROR((E114 - D114) / D114, 0)</f>
         <v>-0.35361842105263158</v>
       </c>
-      <c r="J114" s="15">
-        <f t="shared" si="9"/>
-        <v>164309.21052631579</v>
-      </c>
-      <c r="K114" s="16">
-        <f t="shared" si="10"/>
+      <c r="L114" s="19">
+        <f t="shared" si="4"/>
         <v>64638.157894736833</v>
       </c>
-      <c r="L114" s="15">
-        <f t="shared" si="11"/>
-        <v>64309.210526315786</v>
-      </c>
-      <c r="M114" s="16">
-        <f t="shared" si="12"/>
+      <c r="M114" s="19">
+        <f>IF(G114 = 0, 0, L114 - F114)</f>
         <v>-35361.842105263167</v>
       </c>
     </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="F115" s="8">
-        <f>SUM(F2:F114)</f>
-        <v>11300000</v>
-      </c>
-      <c r="G115" s="8"/>
-      <c r="H115" s="8"/>
-      <c r="I115" s="8"/>
-      <c r="J115" s="8">
+    <row r="115" spans="1:13" s="7" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A115" s="28"/>
+      <c r="B115" s="28"/>
+      <c r="C115" s="29"/>
+      <c r="D115" s="29"/>
+      <c r="E115" s="29"/>
+      <c r="F115" s="31" t="s">
+        <v>239</v>
+      </c>
+      <c r="G115" s="30"/>
+      <c r="H115" s="37" t="s">
+        <v>244</v>
+      </c>
+      <c r="I115" s="31" t="s">
+        <v>240</v>
+      </c>
+      <c r="J115" s="31" t="s">
+        <v>243</v>
+      </c>
+      <c r="K115" s="37" t="s">
+        <v>245</v>
+      </c>
+      <c r="L115" s="31" t="s">
+        <v>241</v>
+      </c>
+      <c r="M115" s="31" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="116" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F116" s="19">
+        <f>SUMIF(G2:G114,"&gt;0",F2:F114)</f>
+        <v>9900000</v>
+      </c>
+      <c r="G116" s="12"/>
+      <c r="H116" s="36">
+        <f>J116 / F116</f>
+        <v>0.25812686810532076</v>
+      </c>
+      <c r="I116" s="19">
+        <f>SUM(I2:I114)</f>
+        <v>12455455.994242676</v>
+      </c>
+      <c r="J116" s="19">
         <f>SUM(J2:J114)</f>
-        <v>12455455.994242676</v>
-      </c>
-      <c r="K115" s="8">
-        <f>SUM(K2:K114)</f>
+        <v>2555455.9942426756</v>
+      </c>
+      <c r="K116" s="36">
+        <f>M116 / F116</f>
+        <v>-3.2448668392922757E-2</v>
+      </c>
+      <c r="L116" s="19">
+        <f>SUM(L2:L114)</f>
         <v>9578758.1829100642</v>
       </c>
-      <c r="L115" s="8">
-        <f>SUM(L2:L114)</f>
-        <v>2555455.9942426756</v>
-      </c>
-      <c r="M115" s="8">
+      <c r="M116" s="19">
         <f>SUM(M2:M114)</f>
         <v>-321241.8170899353</v>
       </c>
     </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="L116" s="8">
-        <f>J115-F115</f>
-        <v>1155455.9942426756</v>
-      </c>
-    </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="L117" s="4" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="L118" s="28">
-        <f>L115-L116</f>
-        <v>1400000</v>
-      </c>
-    </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="L119" s="4" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="L120" s="4" t="s">
-        <v>241</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="H2:H114 J2:J114 L2:L114">
-    <cfRule type="expression" dxfId="3" priority="1">
+  <conditionalFormatting sqref="H2:J114">
+    <cfRule type="expression" dxfId="7" priority="5">
       <formula>$H2 &lt; 0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="4">
+    <cfRule type="expression" dxfId="6" priority="8">
       <formula>$H2 &gt; 0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I2:I114 K2:K114 M2:M114">
-    <cfRule type="expression" dxfId="1" priority="2">
-      <formula>$I2 &lt; 0</formula>
+  <conditionalFormatting sqref="H115:J116">
+    <cfRule type="expression" dxfId="5" priority="3">
+      <formula>$H$116 &lt; 0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="3">
-      <formula>$I2 &gt; 0</formula>
+    <cfRule type="expression" dxfId="4" priority="4">
+      <formula>$H$116 &gt; 0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K115:M116">
+    <cfRule type="expression" dxfId="3" priority="1">
+      <formula>$K$116 &lt; 0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="2">
+      <formula>$K$116 &gt; 0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K2:M114">
+    <cfRule type="expression" dxfId="1" priority="9">
+      <formula>$K2 &lt; 0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="10">
+      <formula>$K2 &gt; 0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
